--- a/2914.T.xlsx
+++ b/2914.T.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62512315-4FDA-4113-8113-F5D44BFF4576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B874A0-012D-4E8E-B0E2-61047B9A27C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{60080457-8EED-45E9-99AC-39ADD7222A04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{60080457-8EED-45E9-99AC-39ADD7222A04}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -968,7 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC904FC-F4B1-4370-9C42-66C78A1263A0}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1207,11 +1207,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2BCD0B-7B8A-4607-AB5D-1BE9B827D71D}">
   <dimension ref="A1:AA358"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/2914.T.xlsx
+++ b/2914.T.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B874A0-012D-4E8E-B0E2-61047B9A27C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1304D4-A191-4C4A-B6C3-D85E0D10BF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{60080457-8EED-45E9-99AC-39ADD7222A04}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{60080457-8EED-45E9-99AC-39ADD7222A04}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Financials" sheetId="2" r:id="rId2"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="98">
   <si>
     <t>Price</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Japanese Tobacco</t>
-  </si>
-  <si>
-    <t>in mil Yen</t>
   </si>
   <si>
     <t>IR</t>
@@ -159,16 +156,7 @@
     <t xml:space="preserve">Benson&amp;Hedges, American Spirit, Sobranie, Silk Cut </t>
   </si>
   <si>
-    <t>https://www.jt.com/</t>
-  </si>
-  <si>
     <t>Tobacco</t>
-  </si>
-  <si>
-    <t>Cigarette Volume</t>
-  </si>
-  <si>
-    <t>RRP Volume</t>
   </si>
   <si>
     <t>Pharma</t>
@@ -226,27 +214,6 @@
   </si>
   <si>
     <t>Tax Rate</t>
-  </si>
-  <si>
-    <t>Balance Sheet</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Revenue by Region</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>EMA</t>
-  </si>
-  <si>
-    <t>Cash and Cash Equivalents</t>
   </si>
   <si>
     <t>Account Receivables</t>
@@ -321,16 +288,10 @@
     <t>Retirement Liabilties</t>
   </si>
   <si>
-    <t>Non Current Tax Liabilties</t>
-  </si>
-  <si>
     <t>Equity</t>
   </si>
   <si>
     <t>Liabilties &amp; Equity</t>
-  </si>
-  <si>
-    <t>Cashflow Statement</t>
   </si>
   <si>
     <t xml:space="preserve">D&amp;A </t>
@@ -341,21 +302,58 @@
   <si>
     <t>Processed food</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Cash &amp; Cash Equivalents</t>
+  </si>
+  <si>
+    <t>Tax Liabilties</t>
+  </si>
+  <si>
+    <t>Total Volume (in billion)</t>
+  </si>
+  <si>
+    <t>RRP Volume (in billion)</t>
+  </si>
+  <si>
+    <t>Minority Interest</t>
+  </si>
+  <si>
+    <t>in mio YEN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -544,37 +542,41 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -598,13 +600,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -968,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC904FC-F4B1-4370-9C42-66C78A1263A0}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -989,40 +991,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
+      <c r="A2" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="3">
-        <v>4080</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C3" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="C3" s="4"/>
       <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="3">
         <v>1775.6347480288</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>9</v>
+      <c r="K3" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C4" s="4" t="s">
-        <v>8</v>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="3">
         <f>J2*J3</f>
-        <v>7244589.7719575036</v>
+        <v>8423611.2446486279</v>
       </c>
       <c r="K4" s="5"/>
     </row>
@@ -1031,16 +1031,15 @@
         <v>3</v>
       </c>
       <c r="J5" s="3">
-        <f>1040206+58633</f>
-        <v>1098839</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>9</v>
+        <v>865185</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1050,16 +1049,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="3">
-        <f>233333+44470+908926+40678</f>
-        <v>1227407</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>9</v>
+        <f>186479+1439954</f>
+        <v>1626433</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1070,36 +1069,36 @@
       </c>
       <c r="J7" s="3">
         <f>J4-J5+J6</f>
-        <v>7373157.7719575036</v>
+        <v>9184859.2446486279</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="13"/>
       <c r="M12" s="2">
@@ -1108,7 +1107,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="13"/>
       <c r="M13" s="2">
@@ -1117,19 +1116,19 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1138,66 +1137,48 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>65</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="19">
-        <v>0.3084830001129561</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L20" s="19">
-        <v>0.28408449113294931</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="L20" s="19"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L21" s="19">
-        <v>0.40743250875409465</v>
-      </c>
+      <c r="L21" s="19"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{ECD951A0-62FD-42E2-9D95-AA294F624D33}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{CC03FB51-1357-4C51-93A2-B511EB91E963}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{ECD951A0-62FD-42E2-9D95-AA294F624D33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1205,13 +1186,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2BCD0B-7B8A-4607-AB5D-1BE9B827D71D}">
-  <dimension ref="A1:AA358"/>
+  <dimension ref="A1:AI352"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1220,141 +1201,174 @@
     <col min="2" max="2" width="22.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
     <col min="4" max="10" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="15" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="14" width="9.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="2"/>
+    <col min="16" max="19" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
-        <v>13700</v>
-      </c>
-      <c r="E3" s="3">
-        <v>41160</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3">
-        <v>19300</v>
-      </c>
-      <c r="I3" s="3">
-        <v>14200</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
-        <v>2100</v>
-      </c>
-      <c r="E4" s="3">
-        <v>7200</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B3" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25">
+        <v>134.4</v>
+      </c>
+      <c r="L3" s="25">
+        <v>148.80000000000001</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B4" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25">
+        <v>2.1</v>
+      </c>
+      <c r="E4" s="26">
+        <v>7.2</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="H4" s="25">
+        <v>2.7</v>
+      </c>
+      <c r="I4" s="25">
+        <v>2.7</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25">
+        <v>3</v>
+      </c>
+      <c r="L4" s="25">
+        <v>3.3</v>
+      </c>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B5" s="18"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1381,10 +1395,14 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3">
@@ -1394,41 +1412,51 @@
         <v>674100</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>681045</v>
+      </c>
       <c r="H6" s="3">
-        <v>73850</v>
+        <v>738500</v>
       </c>
       <c r="I6" s="3">
         <v>730500</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="K6" s="3">
+        <v>764807</v>
+      </c>
+      <c r="L6" s="3">
+        <v>814000</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3">
         <v>2417741</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="U6" s="3">
         <v>2591303</v>
       </c>
-      <c r="R6" s="3">
+      <c r="V6" s="3">
         <v>2747000</v>
       </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
@@ -1438,7 +1466,9 @@
         <v>22100</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>23341</v>
+      </c>
       <c r="H7" s="3">
         <v>20700</v>
       </c>
@@ -1446,33 +1476,41 @@
         <v>23000</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="K7" s="3">
+        <v>25388</v>
+      </c>
+      <c r="L7" s="3">
+        <v>40300</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3">
         <v>82908</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="U7" s="3">
         <v>94875</v>
       </c>
-      <c r="R7" s="3">
+      <c r="V7" s="3">
         <v>93000</v>
       </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
@@ -1482,7 +1520,9 @@
         <v>38100</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>35695</v>
+      </c>
       <c r="H8" s="3">
         <v>38100</v>
       </c>
@@ -1490,33 +1530,41 @@
         <v>39700</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="K8" s="3">
+        <v>36476</v>
+      </c>
+      <c r="L8" s="3">
+        <v>22900</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="3">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3">
         <v>155542</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="U8" s="3">
         <v>153885</v>
       </c>
-      <c r="R8" s="3">
+      <c r="V8" s="3">
         <v>156500</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="20">
@@ -1526,7 +1574,9 @@
         <v>764200</v>
       </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="G9" s="20">
+        <v>740333</v>
+      </c>
       <c r="H9" s="20">
         <v>829600</v>
       </c>
@@ -1534,345 +1584,514 @@
         <v>823400</v>
       </c>
       <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
+      <c r="K9" s="20">
+        <v>826981</v>
+      </c>
+      <c r="L9" s="20">
+        <v>907600</v>
+      </c>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
-      <c r="P9" s="20">
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20">
         <v>2657832</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="U9" s="20">
         <v>2841077</v>
       </c>
-      <c r="R9" s="20">
+      <c r="V9" s="20">
         <v>3109000</v>
       </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>320101</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3">
+        <v>346214</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3">
-        <v>1090989</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1225947</v>
-      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="T10" s="3">
+        <v>1090989</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1225947</v>
+      </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ref="C11:F11" si="0">+C9-C10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>727500</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>764200</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <f>+G9-G10</f>
+        <v>420232</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" ref="H11:N11" si="1">+H9-H10</f>
+        <v>829600</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="1"/>
+        <v>823400</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="1"/>
+        <v>480767</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="1"/>
+        <v>907600</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O11" s="3"/>
-      <c r="P11" s="3">
-        <f>P9-P10</f>
-        <v>1566843</v>
-      </c>
-      <c r="Q11" s="3">
-        <f>Q9-Q10</f>
-        <v>1615130</v>
-      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
+      <c r="T11" s="3">
+        <f>T9-T10</f>
+        <v>1566843</v>
+      </c>
+      <c r="U11" s="3">
+        <f>U9-U10</f>
+        <v>1615130</v>
+      </c>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3">
+        <f>6377+2073</f>
+        <v>8450</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3">
+        <f>3874+2335</f>
+        <v>6209</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3">
         <f>20262+8009</f>
         <v>28271</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="U12" s="3">
         <f>30027+8332</f>
         <v>38359</v>
       </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3">
+        <v>212863</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>238219</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="3">
-        <v>941538</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>981052</v>
-      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="T13" s="3">
+        <v>941538</v>
+      </c>
+      <c r="U13" s="3">
+        <v>981052</v>
+      </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
         <v>207200</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="E14" s="3">
+        <f>+E11+E12-E13</f>
+        <v>764200</v>
+      </c>
+      <c r="F14" s="3">
+        <f>+F11+F12-F13</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <f>+G11+G12-G13</f>
+        <v>215819</v>
+      </c>
       <c r="H14" s="3">
         <v>216800</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="I14" s="3">
+        <f>+I11+I12-I13</f>
+        <v>823400</v>
+      </c>
+      <c r="J14" s="3">
+        <f>+J11+J12-J13</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <f>+K11+K12-K13</f>
+        <v>248757</v>
+      </c>
+      <c r="L14" s="3">
+        <f>+L11+L12-L13</f>
+        <v>907600</v>
+      </c>
+      <c r="M14" s="3">
+        <f>+M11+M12-M13</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <f>+N11+N12-N13</f>
+        <v>0</v>
+      </c>
       <c r="O14" s="3"/>
-      <c r="P14" s="3">
-        <f>P11+P12-P13</f>
-        <v>653576</v>
-      </c>
-      <c r="Q14" s="3">
-        <f>Q11+Q12-Q13</f>
-        <v>672437</v>
-      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+      <c r="T14" s="3">
+        <f>T11+T12-T13</f>
+        <v>653576</v>
+      </c>
+      <c r="U14" s="3">
+        <f>U11+U12-U13</f>
+        <v>672437</v>
+      </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3">
+        <f>14877-29429</f>
+        <v>-14552</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3">
+        <f>17418-40108</f>
+        <v>-22690</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3">
         <f>31147-91272</f>
         <v>-60125</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="U15" s="3">
         <f>44414-95222</f>
         <v>-50808</v>
       </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" ref="C16:S16" si="2">C14+C15</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="2"/>
+        <v>207200</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="2"/>
+        <v>764200</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
+        <v>201267</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="2"/>
+        <v>216800</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="2"/>
+        <v>823400</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="2"/>
+        <v>226067</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="2"/>
+        <v>907600</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3">
-        <f>P14+P15</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <f>T14+T15</f>
         <v>593451</v>
       </c>
-      <c r="Q16" s="3">
-        <f>Q14+Q15</f>
+      <c r="U16" s="3">
+        <f>U14+U15</f>
         <v>621629</v>
       </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3">
+        <v>43499</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3">
+        <v>67843</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="3">
-        <v>149277</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>136292</v>
-      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
+      <c r="T17" s="3">
+        <v>149277</v>
+      </c>
+      <c r="U17" s="3">
+        <v>136292</v>
+      </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>57</v>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B18" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3">
-        <v>142300</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3">
-        <v>147900</v>
-      </c>
+      <c r="G18" s="3">
+        <v>501</v>
+      </c>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="K18" s="3">
+        <v>746</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="3">
-        <f>P16-P17</f>
-        <v>444174</v>
-      </c>
-      <c r="Q18" s="3">
-        <f>Q16-Q17</f>
-        <v>485337</v>
-      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -1883,38 +2102,103 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" ref="C19:F19" si="3">+C16-C17-C18</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="3"/>
+        <v>207200</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="3"/>
+        <v>764200</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <f>+G16-G17-G18</f>
+        <v>157267</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" ref="H19:N19" si="4">+H16-H17-H18</f>
+        <v>216800</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="4"/>
+        <v>823400</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="4"/>
+        <v>157478</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="4"/>
+        <v>907600</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
+      <c r="P19" s="3">
+        <f t="shared" ref="P19" si="5">+P16-P17-P18</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" ref="Q19" si="6">+Q16-Q17-Q18</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" ref="R19" si="7">+R16-R17-R18</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <f t="shared" ref="S19" si="8">+S16-S17-S18</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <f t="shared" ref="T19" si="9">+T16-T17-T18</f>
+        <v>444174</v>
+      </c>
+      <c r="U19" s="3">
+        <f t="shared" ref="U19" si="10">+U16-U17-U18</f>
+        <v>485337</v>
+      </c>
+      <c r="V19" s="3">
+        <f t="shared" ref="V19" si="11">+V16-V17-V18</f>
+        <v>0</v>
+      </c>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1928,12 +2212,8 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="3">
-        <v>249.45</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>271.69</v>
-      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -1944,380 +2224,501 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3" t="e">
-        <f t="shared" ref="L21:P21" si="0">L18/L20</f>
+        <v>54</v>
+      </c>
+      <c r="C21" s="25" t="e">
+        <f t="shared" ref="C21:F21" si="12">+C19/C22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="3" t="e">
-        <f t="shared" si="0"/>
+      <c r="D21" s="25" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N21" s="3" t="e">
-        <f t="shared" si="0"/>
+      <c r="E21" s="25" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O21" s="3" t="e">
-        <f t="shared" si="0"/>
+      <c r="F21" s="25" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P21" s="3">
-        <f t="shared" si="0"/>
-        <v>1780.6133493686111</v>
-      </c>
-      <c r="Q21" s="3">
-        <f>Q18/Q20</f>
-        <v>1786.3631344547093</v>
-      </c>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
+      <c r="G21" s="25">
+        <f>+G19/G22</f>
+        <v>88.584338007290896</v>
+      </c>
+      <c r="H21" s="25" t="e">
+        <f t="shared" ref="H21:N21" si="13">+H19/H22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="25" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="25" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="25">
+        <f t="shared" si="13"/>
+        <v>88.691262432030953</v>
+      </c>
+      <c r="L21" s="25" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M21" s="25" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="25" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25">
+        <v>249.45</v>
+      </c>
+      <c r="U21" s="25">
+        <v>271.69</v>
+      </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3">
+        <v>1775.336403</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3">
+        <v>1775.5751319999999</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
+      <c r="P22" s="3" t="e">
+        <f t="shared" ref="P22:T22" si="14">P19/P21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q22" s="3" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R22" s="3" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S22" s="3" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" s="3">
+        <f t="shared" si="14"/>
+        <v>1780.6133493686111</v>
+      </c>
+      <c r="U22" s="3">
+        <f>U19/U21</f>
+        <v>1786.3631344547093</v>
+      </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
-    </row>
-    <row r="23" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21" t="e">
-        <f t="shared" ref="G23:I23" si="1">G3/C3-1</f>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+    </row>
+    <row r="24" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21" t="e">
+        <f>+G9/C9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="21">
-        <f>H3/D3-1</f>
-        <v>0.40875912408759119</v>
-      </c>
-      <c r="I23" s="21">
-        <f t="shared" si="1"/>
-        <v>-0.65500485908649175</v>
-      </c>
-      <c r="J23" s="21" t="e">
-        <f>J3/F3-1</f>
+      <c r="H24" s="21">
+        <f>+H9/D9-1</f>
+        <v>0.14034364261168375</v>
+      </c>
+      <c r="I24" s="21">
+        <f t="shared" ref="I24:N24" si="15">+I9/E9-1</f>
+        <v>7.7466631771787586E-2</v>
+      </c>
+      <c r="J24" s="21" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21" t="e">
-        <f t="shared" ref="M23:P23" si="2">M9/L9-1</f>
+      <c r="K24" s="21">
+        <f t="shared" si="15"/>
+        <v>0.11703922424098345</v>
+      </c>
+      <c r="L24" s="21">
+        <f t="shared" si="15"/>
+        <v>9.4021215043394335E-2</v>
+      </c>
+      <c r="M24" s="21">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="N24" s="21" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N23" s="21" t="e">
-        <f t="shared" si="2"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21" t="e">
+        <f t="shared" ref="Q24:T24" si="16">Q9/P9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O23" s="21" t="e">
-        <f t="shared" si="2"/>
+      <c r="R24" s="21" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P23" s="21" t="e">
-        <f t="shared" si="2"/>
+      <c r="S24" s="21" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q23" s="21">
-        <f>Q9/P9-1</f>
+      <c r="T24" s="21" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U24" s="21">
+        <f>U9/T9-1</f>
         <v>6.8945290748248844E-2</v>
       </c>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="19">
-        <f t="shared" ref="D24:J24" si="3">D11/D9</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="19" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="19" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="19" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19" t="e">
-        <f t="shared" ref="L24:P24" si="4">L11/L9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N24" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P24" s="19">
-        <f t="shared" si="4"/>
-        <v>0.58951920211661235</v>
-      </c>
-      <c r="Q24" s="19">
-        <f>Q11/Q9</f>
-        <v>0.56849215983938484</v>
-      </c>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+    </row>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="19">
-        <f t="shared" ref="D25:J25" si="5">D14/D9</f>
-        <v>0.28481099656357389</v>
+        <f t="shared" ref="D25:J25" si="17">D11/D9</f>
+        <v>1</v>
       </c>
       <c r="E25" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="F25" s="19" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="G25" s="19">
+        <f t="shared" si="17"/>
+        <v>0.56762564953878858</v>
+      </c>
+      <c r="H25" s="19">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="19">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="19" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="19">
-        <f t="shared" si="5"/>
-        <v>0.26133076181292186</v>
-      </c>
-      <c r="I25" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="K25" s="19">
+        <f t="shared" ref="K25:N25" si="18">K11/K9</f>
+        <v>0.58135192948810188</v>
+      </c>
+      <c r="L25" s="19">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="19" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19" t="e">
-        <f t="shared" ref="L25:P25" si="6">L14/L9</f>
+      <c r="N25" s="19" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="19" t="e">
-        <f t="shared" si="6"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19" t="e">
+        <f t="shared" ref="P25:T25" si="19">P11/P9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N25" s="19" t="e">
-        <f t="shared" si="6"/>
+      <c r="Q25" s="19" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O25" s="19" t="e">
-        <f t="shared" si="6"/>
+      <c r="R25" s="19" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P25" s="19">
-        <f t="shared" si="6"/>
-        <v>0.24590568553618136</v>
-      </c>
-      <c r="Q25" s="19">
-        <f>Q14/Q9</f>
-        <v>0.23668383503861387</v>
-      </c>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
+      <c r="S25" s="19" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="19">
+        <f t="shared" si="19"/>
+        <v>0.58951920211661235</v>
+      </c>
+      <c r="U25" s="19">
+        <f>U11/U9</f>
+        <v>0.56849215983938484</v>
+      </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+    </row>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="19" t="e">
-        <f t="shared" ref="D26:J26" si="7">D17/D16</f>
+      <c r="D26" s="19">
+        <f t="shared" ref="D26:J26" si="20">D14/D9</f>
+        <v>0.28481099656357389</v>
+      </c>
+      <c r="E26" s="19">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="19" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="19" t="e">
-        <f t="shared" si="7"/>
+      <c r="G26" s="19">
+        <f t="shared" si="20"/>
+        <v>0.29151611504552682</v>
+      </c>
+      <c r="H26" s="19">
+        <f t="shared" si="20"/>
+        <v>0.26133076181292186</v>
+      </c>
+      <c r="I26" s="19">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="19" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="19" t="e">
-        <f t="shared" si="7"/>
+      <c r="K26" s="19">
+        <f t="shared" ref="K26:N26" si="21">K14/K9</f>
+        <v>0.30080134851949442</v>
+      </c>
+      <c r="L26" s="19">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="M26" s="19" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="19" t="e">
-        <f t="shared" si="7"/>
+      <c r="N26" s="19" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="19" t="e">
-        <f t="shared" si="7"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19" t="e">
+        <f t="shared" ref="P26:T26" si="22">P14/P9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="19" t="e">
-        <f t="shared" si="7"/>
+      <c r="Q26" s="19" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" s="19" t="e">
-        <f t="shared" si="7"/>
+      <c r="R26" s="19" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19" t="e">
-        <f t="shared" ref="L26:P26" si="8">L17/L16</f>
+      <c r="S26" s="19" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="19" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="19" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="19" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P26" s="19">
-        <f t="shared" si="8"/>
-        <v>0.25154056526992119</v>
-      </c>
-      <c r="Q26" s="19">
-        <f>Q17/Q16</f>
-        <v>0.21924974542693471</v>
-      </c>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
+      <c r="T26" s="19">
+        <f t="shared" si="22"/>
+        <v>0.24590568553618136</v>
+      </c>
+      <c r="U26" s="19">
+        <f>U14/U9</f>
+        <v>0.23668383503861387</v>
+      </c>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+    </row>
+    <row r="27" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
+      <c r="D27" s="19">
+        <f t="shared" ref="D27:J27" si="23">D17/D16</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="19">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="19" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="19">
+        <f t="shared" si="23"/>
+        <v>0.21612584278595101</v>
+      </c>
+      <c r="H27" s="19">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="19">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="19" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="19">
+        <f t="shared" ref="K27:N27" si="24">K17/K16</f>
+        <v>0.3001012974029823</v>
+      </c>
+      <c r="L27" s="19">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="19" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="19" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19" t="e">
+        <f t="shared" ref="P27:T27" si="25">P17/P16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" s="19" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="19" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" s="19" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" s="19">
+        <f t="shared" si="25"/>
+        <v>0.25154056526992119</v>
+      </c>
+      <c r="U27" s="19">
+        <f>U17/U16</f>
+        <v>0.21924974542693471</v>
+      </c>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>63</v>
-      </c>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+    </row>
+    <row r="28" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2343,10 +2744,14 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>69</v>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+    </row>
+    <row r="29" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B29" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2361,26 +2766,30 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="3">
-        <v>866900</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>1040200</v>
-      </c>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
+      <c r="T29" s="3">
+        <v>866900</v>
+      </c>
+      <c r="U29" s="3">
+        <v>1040200</v>
+      </c>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2395,26 +2804,30 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="3">
-        <v>477200</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>535300</v>
-      </c>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
+      <c r="T30" s="3">
+        <v>477200</v>
+      </c>
+      <c r="U30" s="3">
+        <v>535300</v>
+      </c>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+    </row>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2429,26 +2842,30 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="3">
-        <v>691900</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>832600</v>
-      </c>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
+      <c r="T31" s="3">
+        <v>691900</v>
+      </c>
+      <c r="U31" s="3">
+        <v>832600</v>
+      </c>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2463,26 +2880,30 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="3">
-        <v>37700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>58600</v>
-      </c>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
+      <c r="T32" s="3">
+        <v>37700</v>
+      </c>
+      <c r="U32" s="3">
+        <v>58600</v>
+      </c>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2497,95 +2918,103 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="3">
-        <v>649200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>789900</v>
-      </c>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
+      <c r="T33" s="3">
+        <v>649200</v>
+      </c>
+      <c r="U33" s="3">
+        <v>789900</v>
+      </c>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P34" s="3">
+        <v>64</v>
+      </c>
+      <c r="T34" s="3">
         <v>700</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="U34" s="3">
         <v>2900</v>
       </c>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="20">
-        <f t="shared" ref="L35:O35" si="9">SUM(L29:L34)</f>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B35" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24">
+        <f t="shared" ref="P35:S35" si="26">SUM(P29:P34)</f>
         <v>0</v>
       </c>
-      <c r="M35" s="20">
-        <f t="shared" si="9"/>
+      <c r="Q35" s="24">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N35" s="20">
-        <f t="shared" si="9"/>
+      <c r="R35" s="24">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O35" s="20">
-        <f t="shared" si="9"/>
+      <c r="S35" s="24">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="P35" s="20">
-        <f>SUM(P29:P34)</f>
+      <c r="T35" s="24">
+        <f>SUM(T29:T34)</f>
         <v>2723600</v>
       </c>
-      <c r="Q35" s="20">
-        <f>SUM(Q29:Q34)</f>
+      <c r="U35" s="24">
+        <f>SUM(U29:U34)</f>
         <v>3259500</v>
       </c>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+    </row>
+    <row r="36" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2600,26 +3029,30 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="3">
-        <v>776000</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>821500</v>
-      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
+      <c r="T36" s="3">
+        <v>776000</v>
+      </c>
+      <c r="U36" s="3">
+        <v>821500</v>
+      </c>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2634,26 +3067,30 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="3">
-        <v>2446100</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>2616400</v>
-      </c>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
+      <c r="T37" s="3">
+        <v>2446100</v>
+      </c>
+      <c r="U37" s="3">
+        <v>2616400</v>
+      </c>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
-    </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+    </row>
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2668,26 +3105,30 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="3">
-        <v>246400</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>207000</v>
-      </c>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
+      <c r="T38" s="3">
+        <v>246400</v>
+      </c>
+      <c r="U38" s="3">
+        <v>207000</v>
+      </c>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2702,26 +3143,30 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="3">
-        <v>9500</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>9300</v>
-      </c>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
+      <c r="T39" s="3">
+        <v>9500</v>
+      </c>
+      <c r="U39" s="3">
+        <v>9300</v>
+      </c>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -2736,26 +3181,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="3">
-        <v>57800</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>65900</v>
-      </c>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
+      <c r="T40" s="3">
+        <v>57800</v>
+      </c>
+      <c r="U40" s="3">
+        <v>65900</v>
+      </c>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2770,26 +3219,30 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="3">
-        <v>56900</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>56700</v>
-      </c>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
+      <c r="T41" s="3">
+        <v>56900</v>
+      </c>
+      <c r="U41" s="3">
+        <v>56700</v>
+      </c>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2804,26 +3257,30 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="3">
-        <v>140400</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>156300</v>
-      </c>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
+      <c r="T42" s="3">
+        <v>140400</v>
+      </c>
+      <c r="U42" s="3">
+        <v>156300</v>
+      </c>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2838,72 +3295,83 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="3">
-        <v>91400</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>89400</v>
-      </c>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
+      <c r="T43" s="3">
+        <v>91400</v>
+      </c>
+      <c r="U43" s="3">
+        <v>89400</v>
+      </c>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="20">
-        <f t="shared" ref="L44:P44" si="10">SUM(L36:L43)</f>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B44" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24">
+        <f t="shared" ref="P44:T44" si="27">SUM(P36:P43)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="20">
-        <f t="shared" si="10"/>
+      <c r="Q44" s="24">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N44" s="20">
-        <f t="shared" si="10"/>
+      <c r="R44" s="24">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="O44" s="20">
-        <f t="shared" si="10"/>
+      <c r="S44" s="24">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="P44" s="20">
-        <f t="shared" si="10"/>
+      <c r="T44" s="24">
+        <f t="shared" si="27"/>
         <v>3824500</v>
       </c>
-      <c r="Q44" s="20">
-        <f>SUM(Q36:Q43)</f>
+      <c r="U44" s="24">
+        <f>SUM(U36:U43)</f>
         <v>4022500</v>
       </c>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2917,22 +3385,44 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
+      <c r="P45" s="20">
+        <f>P44+P35</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="20">
+        <f>Q44+Q35</f>
+        <v>0</v>
+      </c>
+      <c r="R45" s="20">
+        <f>R44+R35</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="20">
+        <f>S44+S35</f>
+        <v>0</v>
+      </c>
+      <c r="T45" s="20">
+        <f>T44+T35</f>
+        <v>6548100</v>
+      </c>
+      <c r="U45" s="20">
+        <f>U44+U35</f>
+        <v>7282000</v>
+      </c>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
-        <v>76</v>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2943,42 +3433,35 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="20">
-        <f t="shared" ref="L46:P46" si="11">L44+L35</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="20">
-        <f t="shared" si="11"/>
-        <v>6548100</v>
-      </c>
-      <c r="Q46" s="20">
-        <f>Q44+Q35</f>
-        <v>7282000</v>
-      </c>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
+      <c r="T46" s="3">
+        <v>540100</v>
+      </c>
+      <c r="U46" s="3">
+        <v>592800</v>
+      </c>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2996,18 +3479,26 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
+      <c r="T47" s="3">
+        <v>137300</v>
+      </c>
+      <c r="U47" s="3">
+        <v>233300</v>
+      </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -3022,26 +3513,30 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="3">
-        <v>540100</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>592800</v>
-      </c>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
+      <c r="T48" s="3">
+        <v>37500</v>
+      </c>
+      <c r="U48" s="3">
+        <v>29600</v>
+      </c>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
-    </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+    </row>
+    <row r="49" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -3056,26 +3551,30 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="3">
-        <v>137300</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>233300</v>
-      </c>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
+      <c r="T49" s="3">
+        <v>40100</v>
+      </c>
+      <c r="U49" s="3">
+        <v>44500</v>
+      </c>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
-    </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+    </row>
+    <row r="50" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -3090,26 +3589,30 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
-      <c r="P50" s="3">
-        <v>37500</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>29600</v>
-      </c>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
+      <c r="T50" s="3">
+        <v>26600</v>
+      </c>
+      <c r="U50" s="3">
+        <v>18600</v>
+      </c>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
       <c r="AA50" s="3"/>
-    </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+    </row>
+    <row r="51" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -3124,60 +3627,82 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
-      <c r="P51" s="3">
-        <v>40100</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>44500</v>
-      </c>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
+      <c r="T51" s="3">
+        <v>781100</v>
+      </c>
+      <c r="U51" s="3">
+        <v>1008400</v>
+      </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
-    </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3">
-        <v>26600</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>18600</v>
-      </c>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+    </row>
+    <row r="52" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B52" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24">
+        <f t="shared" ref="P52:T52" si="28">SUM(P46:P51)</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="24">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="24">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="24">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="24">
+        <f t="shared" si="28"/>
+        <v>1562700</v>
+      </c>
+      <c r="U52" s="24">
+        <f>SUM(U46:U51)</f>
+        <v>1927200</v>
+      </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
-    </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+    </row>
+    <row r="53" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -3192,26 +3717,30 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
-      <c r="P53" s="3">
-        <v>781100</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>1008400</v>
-      </c>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
+      <c r="T53" s="3">
+        <v>821000</v>
+      </c>
+      <c r="U53" s="3">
+        <v>908900</v>
+      </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
-    </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>90</v>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+    </row>
+    <row r="54" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -3222,44 +3751,34 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="20">
-        <f t="shared" ref="L54:P54" si="12">SUM(L48:L53)</f>
-        <v>0</v>
-      </c>
-      <c r="M54" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="20">
-        <f t="shared" si="12"/>
-        <v>1562700</v>
-      </c>
-      <c r="Q54" s="20">
-        <f>SUM(Q48:Q53)</f>
-        <v>1927200</v>
-      </c>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
+      <c r="T54" s="3">
+        <v>41700</v>
+      </c>
+      <c r="U54" s="3">
+        <v>40700</v>
+      </c>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
       <c r="AA54" s="3"/>
-    </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+    </row>
+    <row r="55" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -3274,26 +3793,30 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-      <c r="P55" s="3">
-        <v>821000</v>
-      </c>
-      <c r="Q55" s="3">
-        <v>908900</v>
-      </c>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
+      <c r="T55" s="3">
+        <v>244100</v>
+      </c>
+      <c r="U55" s="3">
+        <v>279400</v>
+      </c>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -3308,26 +3831,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-      <c r="P56" s="3">
-        <v>41700</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>40700</v>
-      </c>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
+      <c r="T56" s="3">
+        <v>26500</v>
+      </c>
+      <c r="U56" s="3">
+        <v>45500</v>
+      </c>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -3342,26 +3869,30 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
-      <c r="P57" s="3">
-        <v>244100</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>279400</v>
-      </c>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
+      <c r="T57" s="3">
+        <v>195200</v>
+      </c>
+      <c r="U57" s="3">
+        <v>127200</v>
+      </c>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
-    </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
-        <v>89</v>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+    </row>
+    <row r="58" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B58" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -3376,60 +3907,82 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
-      <c r="P58" s="3">
-        <v>26500</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>45500</v>
-      </c>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
+      <c r="T58" s="3">
+        <v>40100</v>
+      </c>
+      <c r="U58" s="3">
+        <v>40600</v>
+      </c>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
       <c r="AA58" s="3"/>
-    </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3">
-        <v>195200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>127200</v>
-      </c>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3"/>
+    </row>
+    <row r="59" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B59" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24">
+        <f t="shared" ref="P59:T59" si="29">SUM(P53:P58)</f>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="24">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="24">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S59" s="24">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="24">
+        <f t="shared" si="29"/>
+        <v>1368600</v>
+      </c>
+      <c r="U59" s="24">
+        <f>SUM(U53:U58)</f>
+        <v>1442300</v>
+      </c>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
-    </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
-        <v>94</v>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+    </row>
+    <row r="60" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -3444,26 +3997,44 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
-      <c r="P60" s="3">
-        <v>40100</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>40600</v>
-      </c>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
+      <c r="P60" s="20">
+        <f t="shared" ref="P60:T60" si="30">P59+P52</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="20">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="20">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="20">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="20">
+        <f t="shared" si="30"/>
+        <v>2931300</v>
+      </c>
+      <c r="U60" s="20">
+        <f>U59+U52</f>
+        <v>3369500</v>
+      </c>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
       <c r="AA60" s="3"/>
-    </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>92</v>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
+    </row>
+    <row r="61" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -3474,42 +4045,35 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="20">
-        <f t="shared" ref="L61:P61" si="13">SUM(L55:L60)</f>
-        <v>0</v>
-      </c>
-      <c r="M61" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N61" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P61" s="20">
-        <f t="shared" si="13"/>
-        <v>1368600</v>
-      </c>
-      <c r="Q61" s="20">
-        <f>SUM(Q55:Q60)</f>
-        <v>1442300</v>
-      </c>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
+      <c r="T61" s="3">
+        <v>3616800</v>
+      </c>
+      <c r="U61" s="3">
+        <v>3912500</v>
+      </c>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
       <c r="AA61" s="3"/>
-    </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3"/>
+      <c r="AC61" s="3"/>
+      <c r="AD61" s="3"/>
+      <c r="AE61" s="3"/>
+    </row>
+    <row r="62" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3523,23 +4087,42 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
+      <c r="P62" s="20">
+        <f>P60+P61</f>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="20">
+        <f>Q60+Q61</f>
+        <v>0</v>
+      </c>
+      <c r="R62" s="20">
+        <f>R60+R61</f>
+        <v>0</v>
+      </c>
+      <c r="S62" s="20">
+        <f>S60+S61</f>
+        <v>0</v>
+      </c>
+      <c r="T62" s="20">
+        <f>T60+T61</f>
+        <v>6548100</v>
+      </c>
+      <c r="U62" s="20">
+        <f>U60+U61</f>
+        <v>7282000</v>
+      </c>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
       <c r="AA62" s="3"/>
-    </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="3"/>
+      <c r="AD62" s="3"/>
+      <c r="AE62" s="3"/>
+    </row>
+    <row r="63" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3549,30 +4132,12 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="20">
-        <f t="shared" ref="L63:P63" si="14">L61+L54</f>
-        <v>0</v>
-      </c>
-      <c r="M63" s="20">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N63" s="20">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O63" s="20">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P63" s="20">
-        <f t="shared" si="14"/>
-        <v>2931300</v>
-      </c>
-      <c r="Q63" s="20">
-        <f>Q61+Q54</f>
-        <v>3369500</v>
-      </c>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
@@ -3583,8 +4148,12 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
       <c r="AA63" s="3"/>
-    </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3"/>
+      <c r="AC63" s="3"/>
+      <c r="AD63" s="3"/>
+      <c r="AE63" s="3"/>
+    </row>
+    <row r="64" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3610,10 +4179,14 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
       <c r="AA64" s="3"/>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3"/>
+      <c r="AC64" s="3"/>
+      <c r="AD64" s="3"/>
+      <c r="AE64" s="3"/>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -3629,23 +4202,44 @@
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3">
-        <v>3616800</v>
+        <f t="shared" ref="P65:S65" si="31">P14</f>
+        <v>0</v>
       </c>
       <c r="Q65" s="3">
-        <v>3912500</v>
-      </c>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <f>T14</f>
+        <v>653576</v>
+      </c>
+      <c r="U65" s="3">
+        <f>U14</f>
+        <v>672437</v>
+      </c>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
       <c r="AA65" s="3"/>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3"/>
+      <c r="AC65" s="3"/>
+      <c r="AD65" s="3"/>
+      <c r="AE65" s="3"/>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3671,10 +4265,14 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
-        <v>96</v>
+      <c r="AB66" s="3"/>
+      <c r="AC66" s="3"/>
+      <c r="AD66" s="3"/>
+      <c r="AE66" s="3"/>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -3685,30 +4283,12 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-      <c r="L67" s="20">
-        <f t="shared" ref="L67:P67" si="15">L63+L65</f>
-        <v>0</v>
-      </c>
-      <c r="M67" s="20">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N67" s="20">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="20">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="20">
-        <f t="shared" si="15"/>
-        <v>6548100</v>
-      </c>
-      <c r="Q67" s="20">
-        <f>Q63+Q65</f>
-        <v>7282000</v>
-      </c>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
@@ -3719,8 +4299,12 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -3746,8 +4330,12 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
       <c r="AA68" s="3"/>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3"/>
+      <c r="AC68" s="3"/>
+      <c r="AD68" s="3"/>
+      <c r="AE68" s="3"/>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -3773,14 +4361,12 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
       <c r="AA69" s="3"/>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A70" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>97</v>
-      </c>
+      <c r="AB69" s="3"/>
+      <c r="AC69" s="3"/>
+      <c r="AD69" s="3"/>
+      <c r="AE69" s="3"/>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3806,11 +4392,12 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
       <c r="AA70" s="3"/>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="AB70" s="3"/>
+      <c r="AC70" s="3"/>
+      <c r="AD70" s="3"/>
+      <c r="AE70" s="3"/>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -3820,30 +4407,12 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="3">
-        <f t="shared" ref="L71:O71" si="16">L14</f>
-        <v>0</v>
-      </c>
-      <c r="M71" s="3">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N71" s="3">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O71" s="3">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P71" s="3">
-        <f>P14</f>
-        <v>653576</v>
-      </c>
-      <c r="Q71" s="3">
-        <f>Q14</f>
-        <v>672437</v>
-      </c>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
@@ -3854,11 +4423,12 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
       <c r="AA71" s="3"/>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B72" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="AB71" s="3"/>
+      <c r="AC71" s="3"/>
+      <c r="AD71" s="3"/>
+      <c r="AE71" s="3"/>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -3884,11 +4454,12 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
       <c r="AA72" s="3"/>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B73" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="AB72" s="3"/>
+      <c r="AC72" s="3"/>
+      <c r="AD72" s="3"/>
+      <c r="AE72" s="3"/>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -3914,8 +4485,12 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
       <c r="AA73" s="3"/>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3"/>
+      <c r="AC73" s="3"/>
+      <c r="AD73" s="3"/>
+      <c r="AE73" s="3"/>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -3941,8 +4516,12 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
       <c r="AA74" s="3"/>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3"/>
+      <c r="AC74" s="3"/>
+      <c r="AD74" s="3"/>
+      <c r="AE74" s="3"/>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -3968,8 +4547,12 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
       <c r="AA75" s="3"/>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3"/>
+      <c r="AC75" s="3"/>
+      <c r="AD75" s="3"/>
+      <c r="AE75" s="3"/>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -3995,8 +4578,12 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
       <c r="AA76" s="3"/>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3"/>
+      <c r="AC76" s="3"/>
+      <c r="AD76" s="3"/>
+      <c r="AE76" s="3"/>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -4022,8 +4609,12 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
       <c r="AA77" s="3"/>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3"/>
+      <c r="AC77" s="3"/>
+      <c r="AD77" s="3"/>
+      <c r="AE77" s="3"/>
+    </row>
+    <row r="78" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -4049,8 +4640,12 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
       <c r="AA78" s="3"/>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB78" s="3"/>
+      <c r="AC78" s="3"/>
+      <c r="AD78" s="3"/>
+      <c r="AE78" s="3"/>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -4076,8 +4671,12 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
       <c r="AA79" s="3"/>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB79" s="3"/>
+      <c r="AC79" s="3"/>
+      <c r="AD79" s="3"/>
+      <c r="AE79" s="3"/>
+    </row>
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -4103,8 +4702,12 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
       <c r="AA80" s="3"/>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="3"/>
+      <c r="AC80" s="3"/>
+      <c r="AD80" s="3"/>
+      <c r="AE80" s="3"/>
+    </row>
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -4130,8 +4733,12 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
       <c r="AA81" s="3"/>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3"/>
+      <c r="AC81" s="3"/>
+      <c r="AD81" s="3"/>
+      <c r="AE81" s="3"/>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -4157,8 +4764,12 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -4184,8 +4795,12 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
       <c r="AA83" s="3"/>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3"/>
+      <c r="AC83" s="3"/>
+      <c r="AD83" s="3"/>
+      <c r="AE83" s="3"/>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -4211,8 +4826,12 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
       <c r="AA84" s="3"/>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3"/>
+      <c r="AC84" s="3"/>
+      <c r="AD84" s="3"/>
+      <c r="AE84" s="3"/>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -4238,8 +4857,12 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
       <c r="AA85" s="3"/>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3"/>
+      <c r="AC85" s="3"/>
+      <c r="AD85" s="3"/>
+      <c r="AE85" s="3"/>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -4265,8 +4888,12 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
       <c r="AA86" s="3"/>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3"/>
+      <c r="AC86" s="3"/>
+      <c r="AD86" s="3"/>
+      <c r="AE86" s="3"/>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -4292,8 +4919,12 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
       <c r="AA87" s="3"/>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3"/>
+      <c r="AC87" s="3"/>
+      <c r="AD87" s="3"/>
+      <c r="AE87" s="3"/>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -4319,8 +4950,12 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
       <c r="AA88" s="3"/>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3"/>
+      <c r="AC88" s="3"/>
+      <c r="AD88" s="3"/>
+      <c r="AE88" s="3"/>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -4346,8 +4981,12 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
       <c r="AA89" s="3"/>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3"/>
+      <c r="AC89" s="3"/>
+      <c r="AD89" s="3"/>
+      <c r="AE89" s="3"/>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -4373,8 +5012,12 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -4400,8 +5043,12 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
       <c r="AA91" s="3"/>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3"/>
+      <c r="AC91" s="3"/>
+      <c r="AD91" s="3"/>
+      <c r="AE91" s="3"/>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -4427,8 +5074,12 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
       <c r="AA92" s="3"/>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3"/>
+      <c r="AC92" s="3"/>
+      <c r="AD92" s="3"/>
+      <c r="AE92" s="3"/>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -4454,8 +5105,12 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
       <c r="AA93" s="3"/>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3"/>
+      <c r="AC93" s="3"/>
+      <c r="AD93" s="3"/>
+      <c r="AE93" s="3"/>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -4481,8 +5136,12 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
       <c r="AA94" s="3"/>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3"/>
+      <c r="AC94" s="3"/>
+      <c r="AD94" s="3"/>
+      <c r="AE94" s="3"/>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -4508,8 +5167,12 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -4535,8 +5198,12 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
       <c r="AA96" s="3"/>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3"/>
+      <c r="AC96" s="3"/>
+      <c r="AD96" s="3"/>
+      <c r="AE96" s="3"/>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -4562,8 +5229,12 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
       <c r="AA97" s="3"/>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3"/>
+      <c r="AC97" s="3"/>
+      <c r="AD97" s="3"/>
+      <c r="AE97" s="3"/>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -4589,8 +5260,12 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
       <c r="AA98" s="3"/>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3"/>
+      <c r="AC98" s="3"/>
+      <c r="AD98" s="3"/>
+      <c r="AE98" s="3"/>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -4616,8 +5291,12 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
       <c r="AA99" s="3"/>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3"/>
+      <c r="AC99" s="3"/>
+      <c r="AD99" s="3"/>
+      <c r="AE99" s="3"/>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -4643,8 +5322,12 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
       <c r="AA100" s="3"/>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3"/>
+      <c r="AC100" s="3"/>
+      <c r="AD100" s="3"/>
+      <c r="AE100" s="3"/>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -4670,8 +5353,12 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
       <c r="AA101" s="3"/>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3"/>
+      <c r="AC101" s="3"/>
+      <c r="AD101" s="3"/>
+      <c r="AE101" s="3"/>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -4697,8 +5384,12 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
       <c r="AA102" s="3"/>
-    </row>
-    <row r="103" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB102" s="3"/>
+      <c r="AC102" s="3"/>
+      <c r="AD102" s="3"/>
+      <c r="AE102" s="3"/>
+    </row>
+    <row r="103" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -4724,8 +5415,12 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
       <c r="AA103" s="3"/>
-    </row>
-    <row r="104" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB103" s="3"/>
+      <c r="AC103" s="3"/>
+      <c r="AD103" s="3"/>
+      <c r="AE103" s="3"/>
+    </row>
+    <row r="104" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -4751,8 +5446,12 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
       <c r="AA104" s="3"/>
-    </row>
-    <row r="105" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB104" s="3"/>
+      <c r="AC104" s="3"/>
+      <c r="AD104" s="3"/>
+      <c r="AE104" s="3"/>
+    </row>
+    <row r="105" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -4778,8 +5477,12 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
       <c r="AA105" s="3"/>
-    </row>
-    <row r="106" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB105" s="3"/>
+      <c r="AC105" s="3"/>
+      <c r="AD105" s="3"/>
+      <c r="AE105" s="3"/>
+    </row>
+    <row r="106" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -4805,8 +5508,12 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
       <c r="AA106" s="3"/>
-    </row>
-    <row r="107" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB106" s="3"/>
+      <c r="AC106" s="3"/>
+      <c r="AD106" s="3"/>
+      <c r="AE106" s="3"/>
+    </row>
+    <row r="107" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -4832,8 +5539,12 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
       <c r="AA107" s="3"/>
-    </row>
-    <row r="108" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB107" s="3"/>
+      <c r="AC107" s="3"/>
+      <c r="AD107" s="3"/>
+      <c r="AE107" s="3"/>
+    </row>
+    <row r="108" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -4859,8 +5570,12 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
       <c r="AA108" s="3"/>
-    </row>
-    <row r="109" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB108" s="3"/>
+      <c r="AC108" s="3"/>
+      <c r="AD108" s="3"/>
+      <c r="AE108" s="3"/>
+    </row>
+    <row r="109" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -4886,8 +5601,12 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
       <c r="AA109" s="3"/>
-    </row>
-    <row r="110" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB109" s="3"/>
+      <c r="AC109" s="3"/>
+      <c r="AD109" s="3"/>
+      <c r="AE109" s="3"/>
+    </row>
+    <row r="110" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -4913,8 +5632,12 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
       <c r="AA110" s="3"/>
-    </row>
-    <row r="111" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB110" s="3"/>
+      <c r="AC110" s="3"/>
+      <c r="AD110" s="3"/>
+      <c r="AE110" s="3"/>
+    </row>
+    <row r="111" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -4940,8 +5663,12 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
       <c r="AA111" s="3"/>
-    </row>
-    <row r="112" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB111" s="3"/>
+      <c r="AC111" s="3"/>
+      <c r="AD111" s="3"/>
+      <c r="AE111" s="3"/>
+    </row>
+    <row r="112" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -4967,8 +5694,12 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
       <c r="AA112" s="3"/>
-    </row>
-    <row r="113" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB112" s="3"/>
+      <c r="AC112" s="3"/>
+      <c r="AD112" s="3"/>
+      <c r="AE112" s="3"/>
+    </row>
+    <row r="113" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -4994,8 +5725,12 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
       <c r="AA113" s="3"/>
-    </row>
-    <row r="114" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB113" s="3"/>
+      <c r="AC113" s="3"/>
+      <c r="AD113" s="3"/>
+      <c r="AE113" s="3"/>
+    </row>
+    <row r="114" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -5021,8 +5756,12 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
       <c r="AA114" s="3"/>
-    </row>
-    <row r="115" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB114" s="3"/>
+      <c r="AC114" s="3"/>
+      <c r="AD114" s="3"/>
+      <c r="AE114" s="3"/>
+    </row>
+    <row r="115" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -5048,8 +5787,12 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
       <c r="AA115" s="3"/>
-    </row>
-    <row r="116" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB115" s="3"/>
+      <c r="AC115" s="3"/>
+      <c r="AD115" s="3"/>
+      <c r="AE115" s="3"/>
+    </row>
+    <row r="116" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -5075,8 +5818,12 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
       <c r="AA116" s="3"/>
-    </row>
-    <row r="117" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB116" s="3"/>
+      <c r="AC116" s="3"/>
+      <c r="AD116" s="3"/>
+      <c r="AE116" s="3"/>
+    </row>
+    <row r="117" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -5102,8 +5849,12 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
       <c r="AA117" s="3"/>
-    </row>
-    <row r="118" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB117" s="3"/>
+      <c r="AC117" s="3"/>
+      <c r="AD117" s="3"/>
+      <c r="AE117" s="3"/>
+    </row>
+    <row r="118" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -5129,8 +5880,12 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
       <c r="AA118" s="3"/>
-    </row>
-    <row r="119" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB118" s="3"/>
+      <c r="AC118" s="3"/>
+      <c r="AD118" s="3"/>
+      <c r="AE118" s="3"/>
+    </row>
+    <row r="119" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -5156,8 +5911,12 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
       <c r="AA119" s="3"/>
-    </row>
-    <row r="120" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB119" s="3"/>
+      <c r="AC119" s="3"/>
+      <c r="AD119" s="3"/>
+      <c r="AE119" s="3"/>
+    </row>
+    <row r="120" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -5183,8 +5942,12 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
       <c r="AA120" s="3"/>
-    </row>
-    <row r="121" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB120" s="3"/>
+      <c r="AC120" s="3"/>
+      <c r="AD120" s="3"/>
+      <c r="AE120" s="3"/>
+    </row>
+    <row r="121" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -5210,8 +5973,12 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
       <c r="AA121" s="3"/>
-    </row>
-    <row r="122" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB121" s="3"/>
+      <c r="AC121" s="3"/>
+      <c r="AD121" s="3"/>
+      <c r="AE121" s="3"/>
+    </row>
+    <row r="122" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -5237,8 +6004,12 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
       <c r="AA122" s="3"/>
-    </row>
-    <row r="123" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB122" s="3"/>
+      <c r="AC122" s="3"/>
+      <c r="AD122" s="3"/>
+      <c r="AE122" s="3"/>
+    </row>
+    <row r="123" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -5264,8 +6035,12 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
       <c r="AA123" s="3"/>
-    </row>
-    <row r="124" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB123" s="3"/>
+      <c r="AC123" s="3"/>
+      <c r="AD123" s="3"/>
+      <c r="AE123" s="3"/>
+    </row>
+    <row r="124" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -5291,8 +6066,12 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
       <c r="AA124" s="3"/>
-    </row>
-    <row r="125" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB124" s="3"/>
+      <c r="AC124" s="3"/>
+      <c r="AD124" s="3"/>
+      <c r="AE124" s="3"/>
+    </row>
+    <row r="125" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -5318,8 +6097,12 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
       <c r="AA125" s="3"/>
-    </row>
-    <row r="126" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB125" s="3"/>
+      <c r="AC125" s="3"/>
+      <c r="AD125" s="3"/>
+      <c r="AE125" s="3"/>
+    </row>
+    <row r="126" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -5345,8 +6128,12 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
       <c r="AA126" s="3"/>
-    </row>
-    <row r="127" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB126" s="3"/>
+      <c r="AC126" s="3"/>
+      <c r="AD126" s="3"/>
+      <c r="AE126" s="3"/>
+    </row>
+    <row r="127" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -5372,8 +6159,12 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
       <c r="AA127" s="3"/>
-    </row>
-    <row r="128" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB127" s="3"/>
+      <c r="AC127" s="3"/>
+      <c r="AD127" s="3"/>
+      <c r="AE127" s="3"/>
+    </row>
+    <row r="128" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -5399,8 +6190,12 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
       <c r="AA128" s="3"/>
-    </row>
-    <row r="129" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB128" s="3"/>
+      <c r="AC128" s="3"/>
+      <c r="AD128" s="3"/>
+      <c r="AE128" s="3"/>
+    </row>
+    <row r="129" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -5426,8 +6221,12 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
       <c r="AA129" s="3"/>
-    </row>
-    <row r="130" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB129" s="3"/>
+      <c r="AC129" s="3"/>
+      <c r="AD129" s="3"/>
+      <c r="AE129" s="3"/>
+    </row>
+    <row r="130" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -5453,8 +6252,12 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
       <c r="AA130" s="3"/>
-    </row>
-    <row r="131" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB130" s="3"/>
+      <c r="AC130" s="3"/>
+      <c r="AD130" s="3"/>
+      <c r="AE130" s="3"/>
+    </row>
+    <row r="131" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -5480,8 +6283,12 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
       <c r="AA131" s="3"/>
-    </row>
-    <row r="132" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB131" s="3"/>
+      <c r="AC131" s="3"/>
+      <c r="AD131" s="3"/>
+      <c r="AE131" s="3"/>
+    </row>
+    <row r="132" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -5507,8 +6314,12 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
       <c r="AA132" s="3"/>
-    </row>
-    <row r="133" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB132" s="3"/>
+      <c r="AC132" s="3"/>
+      <c r="AD132" s="3"/>
+      <c r="AE132" s="3"/>
+    </row>
+    <row r="133" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -5534,8 +6345,12 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
       <c r="AA133" s="3"/>
-    </row>
-    <row r="134" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB133" s="3"/>
+      <c r="AC133" s="3"/>
+      <c r="AD133" s="3"/>
+      <c r="AE133" s="3"/>
+    </row>
+    <row r="134" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -5561,8 +6376,12 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
       <c r="AA134" s="3"/>
-    </row>
-    <row r="135" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB134" s="3"/>
+      <c r="AC134" s="3"/>
+      <c r="AD134" s="3"/>
+      <c r="AE134" s="3"/>
+    </row>
+    <row r="135" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -5588,8 +6407,12 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
       <c r="AA135" s="3"/>
-    </row>
-    <row r="136" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB135" s="3"/>
+      <c r="AC135" s="3"/>
+      <c r="AD135" s="3"/>
+      <c r="AE135" s="3"/>
+    </row>
+    <row r="136" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -5615,8 +6438,12 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
       <c r="AA136" s="3"/>
-    </row>
-    <row r="137" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB136" s="3"/>
+      <c r="AC136" s="3"/>
+      <c r="AD136" s="3"/>
+      <c r="AE136" s="3"/>
+    </row>
+    <row r="137" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -5642,8 +6469,12 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
       <c r="AA137" s="3"/>
-    </row>
-    <row r="138" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB137" s="3"/>
+      <c r="AC137" s="3"/>
+      <c r="AD137" s="3"/>
+      <c r="AE137" s="3"/>
+    </row>
+    <row r="138" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -5669,8 +6500,12 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
       <c r="AA138" s="3"/>
-    </row>
-    <row r="139" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB138" s="3"/>
+      <c r="AC138" s="3"/>
+      <c r="AD138" s="3"/>
+      <c r="AE138" s="3"/>
+    </row>
+    <row r="139" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -5696,8 +6531,12 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
       <c r="AA139" s="3"/>
-    </row>
-    <row r="140" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB139" s="3"/>
+      <c r="AC139" s="3"/>
+      <c r="AD139" s="3"/>
+      <c r="AE139" s="3"/>
+    </row>
+    <row r="140" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -5723,8 +6562,12 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
       <c r="AA140" s="3"/>
-    </row>
-    <row r="141" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB140" s="3"/>
+      <c r="AC140" s="3"/>
+      <c r="AD140" s="3"/>
+      <c r="AE140" s="3"/>
+    </row>
+    <row r="141" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -5750,8 +6593,12 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
       <c r="AA141" s="3"/>
-    </row>
-    <row r="142" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB141" s="3"/>
+      <c r="AC141" s="3"/>
+      <c r="AD141" s="3"/>
+      <c r="AE141" s="3"/>
+    </row>
+    <row r="142" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -5777,8 +6624,12 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
       <c r="AA142" s="3"/>
-    </row>
-    <row r="143" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB142" s="3"/>
+      <c r="AC142" s="3"/>
+      <c r="AD142" s="3"/>
+      <c r="AE142" s="3"/>
+    </row>
+    <row r="143" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -5804,8 +6655,12 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
       <c r="AA143" s="3"/>
-    </row>
-    <row r="144" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB143" s="3"/>
+      <c r="AC143" s="3"/>
+      <c r="AD143" s="3"/>
+      <c r="AE143" s="3"/>
+    </row>
+    <row r="144" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -5831,8 +6686,12 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
       <c r="AA144" s="3"/>
-    </row>
-    <row r="145" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB144" s="3"/>
+      <c r="AC144" s="3"/>
+      <c r="AD144" s="3"/>
+      <c r="AE144" s="3"/>
+    </row>
+    <row r="145" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -5858,8 +6717,12 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
       <c r="AA145" s="3"/>
-    </row>
-    <row r="146" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB145" s="3"/>
+      <c r="AC145" s="3"/>
+      <c r="AD145" s="3"/>
+      <c r="AE145" s="3"/>
+    </row>
+    <row r="146" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -5885,8 +6748,12 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
       <c r="AA146" s="3"/>
-    </row>
-    <row r="147" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB146" s="3"/>
+      <c r="AC146" s="3"/>
+      <c r="AD146" s="3"/>
+      <c r="AE146" s="3"/>
+    </row>
+    <row r="147" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -5912,8 +6779,12 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
       <c r="AA147" s="3"/>
-    </row>
-    <row r="148" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB147" s="3"/>
+      <c r="AC147" s="3"/>
+      <c r="AD147" s="3"/>
+      <c r="AE147" s="3"/>
+    </row>
+    <row r="148" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -5939,8 +6810,12 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
       <c r="AA148" s="3"/>
-    </row>
-    <row r="149" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB148" s="3"/>
+      <c r="AC148" s="3"/>
+      <c r="AD148" s="3"/>
+      <c r="AE148" s="3"/>
+    </row>
+    <row r="149" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -5966,8 +6841,12 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
       <c r="AA149" s="3"/>
-    </row>
-    <row r="150" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB149" s="3"/>
+      <c r="AC149" s="3"/>
+      <c r="AD149" s="3"/>
+      <c r="AE149" s="3"/>
+    </row>
+    <row r="150" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -5993,8 +6872,12 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
       <c r="AA150" s="3"/>
-    </row>
-    <row r="151" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB150" s="3"/>
+      <c r="AC150" s="3"/>
+      <c r="AD150" s="3"/>
+      <c r="AE150" s="3"/>
+    </row>
+    <row r="151" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -6020,8 +6903,12 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
       <c r="AA151" s="3"/>
-    </row>
-    <row r="152" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB151" s="3"/>
+      <c r="AC151" s="3"/>
+      <c r="AD151" s="3"/>
+      <c r="AE151" s="3"/>
+    </row>
+    <row r="152" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -6047,8 +6934,12 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
       <c r="AA152" s="3"/>
-    </row>
-    <row r="153" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB152" s="3"/>
+      <c r="AC152" s="3"/>
+      <c r="AD152" s="3"/>
+      <c r="AE152" s="3"/>
+    </row>
+    <row r="153" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -6074,8 +6965,12 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
       <c r="AA153" s="3"/>
-    </row>
-    <row r="154" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB153" s="3"/>
+      <c r="AC153" s="3"/>
+      <c r="AD153" s="3"/>
+      <c r="AE153" s="3"/>
+    </row>
+    <row r="154" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -6101,8 +6996,12 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
       <c r="AA154" s="3"/>
-    </row>
-    <row r="155" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB154" s="3"/>
+      <c r="AC154" s="3"/>
+      <c r="AD154" s="3"/>
+      <c r="AE154" s="3"/>
+    </row>
+    <row r="155" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -6128,8 +7027,12 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
       <c r="AA155" s="3"/>
-    </row>
-    <row r="156" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB155" s="3"/>
+      <c r="AC155" s="3"/>
+      <c r="AD155" s="3"/>
+      <c r="AE155" s="3"/>
+    </row>
+    <row r="156" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -6155,8 +7058,12 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
       <c r="AA156" s="3"/>
-    </row>
-    <row r="157" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB156" s="3"/>
+      <c r="AC156" s="3"/>
+      <c r="AD156" s="3"/>
+      <c r="AE156" s="3"/>
+    </row>
+    <row r="157" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -6182,8 +7089,12 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
       <c r="AA157" s="3"/>
-    </row>
-    <row r="158" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB157" s="3"/>
+      <c r="AC157" s="3"/>
+      <c r="AD157" s="3"/>
+      <c r="AE157" s="3"/>
+    </row>
+    <row r="158" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -6209,8 +7120,12 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
       <c r="AA158" s="3"/>
-    </row>
-    <row r="159" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB158" s="3"/>
+      <c r="AC158" s="3"/>
+      <c r="AD158" s="3"/>
+      <c r="AE158" s="3"/>
+    </row>
+    <row r="159" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -6236,8 +7151,12 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
       <c r="AA159" s="3"/>
-    </row>
-    <row r="160" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB159" s="3"/>
+      <c r="AC159" s="3"/>
+      <c r="AD159" s="3"/>
+      <c r="AE159" s="3"/>
+    </row>
+    <row r="160" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -6263,8 +7182,12 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
       <c r="AA160" s="3"/>
-    </row>
-    <row r="161" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB160" s="3"/>
+      <c r="AC160" s="3"/>
+      <c r="AD160" s="3"/>
+      <c r="AE160" s="3"/>
+    </row>
+    <row r="161" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -6290,8 +7213,12 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
       <c r="AA161" s="3"/>
-    </row>
-    <row r="162" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB161" s="3"/>
+      <c r="AC161" s="3"/>
+      <c r="AD161" s="3"/>
+      <c r="AE161" s="3"/>
+    </row>
+    <row r="162" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -6317,8 +7244,12 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
       <c r="AA162" s="3"/>
-    </row>
-    <row r="163" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB162" s="3"/>
+      <c r="AC162" s="3"/>
+      <c r="AD162" s="3"/>
+      <c r="AE162" s="3"/>
+    </row>
+    <row r="163" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -6344,8 +7275,12 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
       <c r="AA163" s="3"/>
-    </row>
-    <row r="164" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB163" s="3"/>
+      <c r="AC163" s="3"/>
+      <c r="AD163" s="3"/>
+      <c r="AE163" s="3"/>
+    </row>
+    <row r="164" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -6371,8 +7306,12 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
       <c r="AA164" s="3"/>
-    </row>
-    <row r="165" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB164" s="3"/>
+      <c r="AC164" s="3"/>
+      <c r="AD164" s="3"/>
+      <c r="AE164" s="3"/>
+    </row>
+    <row r="165" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -6398,8 +7337,12 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
       <c r="AA165" s="3"/>
-    </row>
-    <row r="166" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB165" s="3"/>
+      <c r="AC165" s="3"/>
+      <c r="AD165" s="3"/>
+      <c r="AE165" s="3"/>
+    </row>
+    <row r="166" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -6425,8 +7368,12 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
       <c r="AA166" s="3"/>
-    </row>
-    <row r="167" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB166" s="3"/>
+      <c r="AC166" s="3"/>
+      <c r="AD166" s="3"/>
+      <c r="AE166" s="3"/>
+    </row>
+    <row r="167" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -6452,8 +7399,12 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
       <c r="AA167" s="3"/>
-    </row>
-    <row r="168" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB167" s="3"/>
+      <c r="AC167" s="3"/>
+      <c r="AD167" s="3"/>
+      <c r="AE167" s="3"/>
+    </row>
+    <row r="168" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -6479,8 +7430,12 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
       <c r="AA168" s="3"/>
-    </row>
-    <row r="169" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB168" s="3"/>
+      <c r="AC168" s="3"/>
+      <c r="AD168" s="3"/>
+      <c r="AE168" s="3"/>
+    </row>
+    <row r="169" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -6506,8 +7461,12 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
       <c r="AA169" s="3"/>
-    </row>
-    <row r="170" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB169" s="3"/>
+      <c r="AC169" s="3"/>
+      <c r="AD169" s="3"/>
+      <c r="AE169" s="3"/>
+    </row>
+    <row r="170" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -6533,8 +7492,12 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
       <c r="AA170" s="3"/>
-    </row>
-    <row r="171" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB170" s="3"/>
+      <c r="AC170" s="3"/>
+      <c r="AD170" s="3"/>
+      <c r="AE170" s="3"/>
+    </row>
+    <row r="171" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -6560,8 +7523,12 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
       <c r="AA171" s="3"/>
-    </row>
-    <row r="172" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB171" s="3"/>
+      <c r="AC171" s="3"/>
+      <c r="AD171" s="3"/>
+      <c r="AE171" s="3"/>
+    </row>
+    <row r="172" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -6587,8 +7554,12 @@
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
       <c r="AA172" s="3"/>
-    </row>
-    <row r="173" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB172" s="3"/>
+      <c r="AC172" s="3"/>
+      <c r="AD172" s="3"/>
+      <c r="AE172" s="3"/>
+    </row>
+    <row r="173" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -6614,8 +7585,12 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
       <c r="AA173" s="3"/>
-    </row>
-    <row r="174" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB173" s="3"/>
+      <c r="AC173" s="3"/>
+      <c r="AD173" s="3"/>
+      <c r="AE173" s="3"/>
+    </row>
+    <row r="174" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -6641,8 +7616,12 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
       <c r="AA174" s="3"/>
-    </row>
-    <row r="175" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB174" s="3"/>
+      <c r="AC174" s="3"/>
+      <c r="AD174" s="3"/>
+      <c r="AE174" s="3"/>
+    </row>
+    <row r="175" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -6668,8 +7647,12 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
       <c r="AA175" s="3"/>
-    </row>
-    <row r="176" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB175" s="3"/>
+      <c r="AC175" s="3"/>
+      <c r="AD175" s="3"/>
+      <c r="AE175" s="3"/>
+    </row>
+    <row r="176" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -6695,8 +7678,12 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
       <c r="AA176" s="3"/>
-    </row>
-    <row r="177" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB176" s="3"/>
+      <c r="AC176" s="3"/>
+      <c r="AD176" s="3"/>
+      <c r="AE176" s="3"/>
+    </row>
+    <row r="177" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -6722,8 +7709,12 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
       <c r="AA177" s="3"/>
-    </row>
-    <row r="178" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB177" s="3"/>
+      <c r="AC177" s="3"/>
+      <c r="AD177" s="3"/>
+      <c r="AE177" s="3"/>
+    </row>
+    <row r="178" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -6749,8 +7740,12 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
       <c r="AA178" s="3"/>
-    </row>
-    <row r="179" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB178" s="3"/>
+      <c r="AC178" s="3"/>
+      <c r="AD178" s="3"/>
+      <c r="AE178" s="3"/>
+    </row>
+    <row r="179" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -6776,8 +7771,12 @@
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
       <c r="AA179" s="3"/>
-    </row>
-    <row r="180" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB179" s="3"/>
+      <c r="AC179" s="3"/>
+      <c r="AD179" s="3"/>
+      <c r="AE179" s="3"/>
+    </row>
+    <row r="180" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -6803,8 +7802,12 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
       <c r="AA180" s="3"/>
-    </row>
-    <row r="181" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB180" s="3"/>
+      <c r="AC180" s="3"/>
+      <c r="AD180" s="3"/>
+      <c r="AE180" s="3"/>
+    </row>
+    <row r="181" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -6830,8 +7833,12 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
       <c r="AA181" s="3"/>
-    </row>
-    <row r="182" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB181" s="3"/>
+      <c r="AC181" s="3"/>
+      <c r="AD181" s="3"/>
+      <c r="AE181" s="3"/>
+    </row>
+    <row r="182" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -6857,8 +7864,12 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
       <c r="AA182" s="3"/>
-    </row>
-    <row r="183" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB182" s="3"/>
+      <c r="AC182" s="3"/>
+      <c r="AD182" s="3"/>
+      <c r="AE182" s="3"/>
+    </row>
+    <row r="183" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -6884,8 +7895,12 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
       <c r="AA183" s="3"/>
-    </row>
-    <row r="184" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB183" s="3"/>
+      <c r="AC183" s="3"/>
+      <c r="AD183" s="3"/>
+      <c r="AE183" s="3"/>
+    </row>
+    <row r="184" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -6911,8 +7926,12 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
       <c r="AA184" s="3"/>
-    </row>
-    <row r="185" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB184" s="3"/>
+      <c r="AC184" s="3"/>
+      <c r="AD184" s="3"/>
+      <c r="AE184" s="3"/>
+    </row>
+    <row r="185" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -6938,8 +7957,12 @@
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
       <c r="AA185" s="3"/>
-    </row>
-    <row r="186" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB185" s="3"/>
+      <c r="AC185" s="3"/>
+      <c r="AD185" s="3"/>
+      <c r="AE185" s="3"/>
+    </row>
+    <row r="186" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -6965,8 +7988,12 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
       <c r="AA186" s="3"/>
-    </row>
-    <row r="187" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB186" s="3"/>
+      <c r="AC186" s="3"/>
+      <c r="AD186" s="3"/>
+      <c r="AE186" s="3"/>
+    </row>
+    <row r="187" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -6992,8 +8019,12 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
       <c r="AA187" s="3"/>
-    </row>
-    <row r="188" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB187" s="3"/>
+      <c r="AC187" s="3"/>
+      <c r="AD187" s="3"/>
+      <c r="AE187" s="3"/>
+    </row>
+    <row r="188" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -7019,8 +8050,12 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
       <c r="AA188" s="3"/>
-    </row>
-    <row r="189" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB188" s="3"/>
+      <c r="AC188" s="3"/>
+      <c r="AD188" s="3"/>
+      <c r="AE188" s="3"/>
+    </row>
+    <row r="189" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -7046,8 +8081,12 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
       <c r="AA189" s="3"/>
-    </row>
-    <row r="190" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB189" s="3"/>
+      <c r="AC189" s="3"/>
+      <c r="AD189" s="3"/>
+      <c r="AE189" s="3"/>
+    </row>
+    <row r="190" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -7073,8 +8112,12 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
       <c r="AA190" s="3"/>
-    </row>
-    <row r="191" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB190" s="3"/>
+      <c r="AC190" s="3"/>
+      <c r="AD190" s="3"/>
+      <c r="AE190" s="3"/>
+    </row>
+    <row r="191" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -7100,8 +8143,12 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
       <c r="AA191" s="3"/>
-    </row>
-    <row r="192" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB191" s="3"/>
+      <c r="AC191" s="3"/>
+      <c r="AD191" s="3"/>
+      <c r="AE191" s="3"/>
+    </row>
+    <row r="192" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -7127,8 +8174,12 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
       <c r="AA192" s="3"/>
-    </row>
-    <row r="193" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB192" s="3"/>
+      <c r="AC192" s="3"/>
+      <c r="AD192" s="3"/>
+      <c r="AE192" s="3"/>
+    </row>
+    <row r="193" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -7154,8 +8205,12 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
       <c r="AA193" s="3"/>
-    </row>
-    <row r="194" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB193" s="3"/>
+      <c r="AC193" s="3"/>
+      <c r="AD193" s="3"/>
+      <c r="AE193" s="3"/>
+    </row>
+    <row r="194" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -7181,8 +8236,12 @@
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
       <c r="AA194" s="3"/>
-    </row>
-    <row r="195" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB194" s="3"/>
+      <c r="AC194" s="3"/>
+      <c r="AD194" s="3"/>
+      <c r="AE194" s="3"/>
+    </row>
+    <row r="195" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -7208,8 +8267,12 @@
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
       <c r="AA195" s="3"/>
-    </row>
-    <row r="196" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB195" s="3"/>
+      <c r="AC195" s="3"/>
+      <c r="AD195" s="3"/>
+      <c r="AE195" s="3"/>
+    </row>
+    <row r="196" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -7235,8 +8298,12 @@
       <c r="Y196" s="3"/>
       <c r="Z196" s="3"/>
       <c r="AA196" s="3"/>
-    </row>
-    <row r="197" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB196" s="3"/>
+      <c r="AC196" s="3"/>
+      <c r="AD196" s="3"/>
+      <c r="AE196" s="3"/>
+    </row>
+    <row r="197" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -7262,8 +8329,12 @@
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
       <c r="AA197" s="3"/>
-    </row>
-    <row r="198" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB197" s="3"/>
+      <c r="AC197" s="3"/>
+      <c r="AD197" s="3"/>
+      <c r="AE197" s="3"/>
+    </row>
+    <row r="198" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -7289,8 +8360,12 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
       <c r="AA198" s="3"/>
-    </row>
-    <row r="199" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB198" s="3"/>
+      <c r="AC198" s="3"/>
+      <c r="AD198" s="3"/>
+      <c r="AE198" s="3"/>
+    </row>
+    <row r="199" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -7316,8 +8391,12 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
       <c r="AA199" s="3"/>
-    </row>
-    <row r="200" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB199" s="3"/>
+      <c r="AC199" s="3"/>
+      <c r="AD199" s="3"/>
+      <c r="AE199" s="3"/>
+    </row>
+    <row r="200" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -7343,8 +8422,12 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
       <c r="AA200" s="3"/>
-    </row>
-    <row r="201" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB200" s="3"/>
+      <c r="AC200" s="3"/>
+      <c r="AD200" s="3"/>
+      <c r="AE200" s="3"/>
+    </row>
+    <row r="201" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -7370,8 +8453,12 @@
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
       <c r="AA201" s="3"/>
-    </row>
-    <row r="202" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB201" s="3"/>
+      <c r="AC201" s="3"/>
+      <c r="AD201" s="3"/>
+      <c r="AE201" s="3"/>
+    </row>
+    <row r="202" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -7397,8 +8484,12 @@
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
       <c r="AA202" s="3"/>
-    </row>
-    <row r="203" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB202" s="3"/>
+      <c r="AC202" s="3"/>
+      <c r="AD202" s="3"/>
+      <c r="AE202" s="3"/>
+    </row>
+    <row r="203" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -7424,8 +8515,12 @@
       <c r="Y203" s="3"/>
       <c r="Z203" s="3"/>
       <c r="AA203" s="3"/>
-    </row>
-    <row r="204" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB203" s="3"/>
+      <c r="AC203" s="3"/>
+      <c r="AD203" s="3"/>
+      <c r="AE203" s="3"/>
+    </row>
+    <row r="204" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -7451,8 +8546,12 @@
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
       <c r="AA204" s="3"/>
-    </row>
-    <row r="205" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB204" s="3"/>
+      <c r="AC204" s="3"/>
+      <c r="AD204" s="3"/>
+      <c r="AE204" s="3"/>
+    </row>
+    <row r="205" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -7478,8 +8577,12 @@
       <c r="Y205" s="3"/>
       <c r="Z205" s="3"/>
       <c r="AA205" s="3"/>
-    </row>
-    <row r="206" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB205" s="3"/>
+      <c r="AC205" s="3"/>
+      <c r="AD205" s="3"/>
+      <c r="AE205" s="3"/>
+    </row>
+    <row r="206" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -7505,8 +8608,12 @@
       <c r="Y206" s="3"/>
       <c r="Z206" s="3"/>
       <c r="AA206" s="3"/>
-    </row>
-    <row r="207" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB206" s="3"/>
+      <c r="AC206" s="3"/>
+      <c r="AD206" s="3"/>
+      <c r="AE206" s="3"/>
+    </row>
+    <row r="207" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -7532,8 +8639,12 @@
       <c r="Y207" s="3"/>
       <c r="Z207" s="3"/>
       <c r="AA207" s="3"/>
-    </row>
-    <row r="208" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB207" s="3"/>
+      <c r="AC207" s="3"/>
+      <c r="AD207" s="3"/>
+      <c r="AE207" s="3"/>
+    </row>
+    <row r="208" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -7559,8 +8670,12 @@
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
       <c r="AA208" s="3"/>
-    </row>
-    <row r="209" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB208" s="3"/>
+      <c r="AC208" s="3"/>
+      <c r="AD208" s="3"/>
+      <c r="AE208" s="3"/>
+    </row>
+    <row r="209" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -7586,8 +8701,12 @@
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
       <c r="AA209" s="3"/>
-    </row>
-    <row r="210" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB209" s="3"/>
+      <c r="AC209" s="3"/>
+      <c r="AD209" s="3"/>
+      <c r="AE209" s="3"/>
+    </row>
+    <row r="210" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -7613,8 +8732,12 @@
       <c r="Y210" s="3"/>
       <c r="Z210" s="3"/>
       <c r="AA210" s="3"/>
-    </row>
-    <row r="211" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB210" s="3"/>
+      <c r="AC210" s="3"/>
+      <c r="AD210" s="3"/>
+      <c r="AE210" s="3"/>
+    </row>
+    <row r="211" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -7640,8 +8763,12 @@
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
       <c r="AA211" s="3"/>
-    </row>
-    <row r="212" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB211" s="3"/>
+      <c r="AC211" s="3"/>
+      <c r="AD211" s="3"/>
+      <c r="AE211" s="3"/>
+    </row>
+    <row r="212" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -7667,8 +8794,12 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
       <c r="AA212" s="3"/>
-    </row>
-    <row r="213" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB212" s="3"/>
+      <c r="AC212" s="3"/>
+      <c r="AD212" s="3"/>
+      <c r="AE212" s="3"/>
+    </row>
+    <row r="213" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -7694,8 +8825,12 @@
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
       <c r="AA213" s="3"/>
-    </row>
-    <row r="214" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB213" s="3"/>
+      <c r="AC213" s="3"/>
+      <c r="AD213" s="3"/>
+      <c r="AE213" s="3"/>
+    </row>
+    <row r="214" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -7721,8 +8856,12 @@
       <c r="Y214" s="3"/>
       <c r="Z214" s="3"/>
       <c r="AA214" s="3"/>
-    </row>
-    <row r="215" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB214" s="3"/>
+      <c r="AC214" s="3"/>
+      <c r="AD214" s="3"/>
+      <c r="AE214" s="3"/>
+    </row>
+    <row r="215" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -7748,8 +8887,12 @@
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
       <c r="AA215" s="3"/>
-    </row>
-    <row r="216" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB215" s="3"/>
+      <c r="AC215" s="3"/>
+      <c r="AD215" s="3"/>
+      <c r="AE215" s="3"/>
+    </row>
+    <row r="216" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -7775,8 +8918,12 @@
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
       <c r="AA216" s="3"/>
-    </row>
-    <row r="217" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB216" s="3"/>
+      <c r="AC216" s="3"/>
+      <c r="AD216" s="3"/>
+      <c r="AE216" s="3"/>
+    </row>
+    <row r="217" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -7802,8 +8949,12 @@
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
       <c r="AA217" s="3"/>
-    </row>
-    <row r="218" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB217" s="3"/>
+      <c r="AC217" s="3"/>
+      <c r="AD217" s="3"/>
+      <c r="AE217" s="3"/>
+    </row>
+    <row r="218" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -7829,8 +8980,12 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
       <c r="AA218" s="3"/>
-    </row>
-    <row r="219" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB218" s="3"/>
+      <c r="AC218" s="3"/>
+      <c r="AD218" s="3"/>
+      <c r="AE218" s="3"/>
+    </row>
+    <row r="219" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -7856,8 +9011,12 @@
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
       <c r="AA219" s="3"/>
-    </row>
-    <row r="220" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB219" s="3"/>
+      <c r="AC219" s="3"/>
+      <c r="AD219" s="3"/>
+      <c r="AE219" s="3"/>
+    </row>
+    <row r="220" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -7883,8 +9042,12 @@
       <c r="Y220" s="3"/>
       <c r="Z220" s="3"/>
       <c r="AA220" s="3"/>
-    </row>
-    <row r="221" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB220" s="3"/>
+      <c r="AC220" s="3"/>
+      <c r="AD220" s="3"/>
+      <c r="AE220" s="3"/>
+    </row>
+    <row r="221" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -7910,8 +9073,12 @@
       <c r="Y221" s="3"/>
       <c r="Z221" s="3"/>
       <c r="AA221" s="3"/>
-    </row>
-    <row r="222" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB221" s="3"/>
+      <c r="AC221" s="3"/>
+      <c r="AD221" s="3"/>
+      <c r="AE221" s="3"/>
+    </row>
+    <row r="222" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -7937,8 +9104,12 @@
       <c r="Y222" s="3"/>
       <c r="Z222" s="3"/>
       <c r="AA222" s="3"/>
-    </row>
-    <row r="223" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB222" s="3"/>
+      <c r="AC222" s="3"/>
+      <c r="AD222" s="3"/>
+      <c r="AE222" s="3"/>
+    </row>
+    <row r="223" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -7964,8 +9135,12 @@
       <c r="Y223" s="3"/>
       <c r="Z223" s="3"/>
       <c r="AA223" s="3"/>
-    </row>
-    <row r="224" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB223" s="3"/>
+      <c r="AC223" s="3"/>
+      <c r="AD223" s="3"/>
+      <c r="AE223" s="3"/>
+    </row>
+    <row r="224" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -7991,8 +9166,12 @@
       <c r="Y224" s="3"/>
       <c r="Z224" s="3"/>
       <c r="AA224" s="3"/>
-    </row>
-    <row r="225" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB224" s="3"/>
+      <c r="AC224" s="3"/>
+      <c r="AD224" s="3"/>
+      <c r="AE224" s="3"/>
+    </row>
+    <row r="225" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -8018,8 +9197,12 @@
       <c r="Y225" s="3"/>
       <c r="Z225" s="3"/>
       <c r="AA225" s="3"/>
-    </row>
-    <row r="226" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB225" s="3"/>
+      <c r="AC225" s="3"/>
+      <c r="AD225" s="3"/>
+      <c r="AE225" s="3"/>
+    </row>
+    <row r="226" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -8045,8 +9228,12 @@
       <c r="Y226" s="3"/>
       <c r="Z226" s="3"/>
       <c r="AA226" s="3"/>
-    </row>
-    <row r="227" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB226" s="3"/>
+      <c r="AC226" s="3"/>
+      <c r="AD226" s="3"/>
+      <c r="AE226" s="3"/>
+    </row>
+    <row r="227" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -8072,8 +9259,12 @@
       <c r="Y227" s="3"/>
       <c r="Z227" s="3"/>
       <c r="AA227" s="3"/>
-    </row>
-    <row r="228" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB227" s="3"/>
+      <c r="AC227" s="3"/>
+      <c r="AD227" s="3"/>
+      <c r="AE227" s="3"/>
+    </row>
+    <row r="228" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -8099,8 +9290,12 @@
       <c r="Y228" s="3"/>
       <c r="Z228" s="3"/>
       <c r="AA228" s="3"/>
-    </row>
-    <row r="229" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB228" s="3"/>
+      <c r="AC228" s="3"/>
+      <c r="AD228" s="3"/>
+      <c r="AE228" s="3"/>
+    </row>
+    <row r="229" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -8126,8 +9321,12 @@
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
       <c r="AA229" s="3"/>
-    </row>
-    <row r="230" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB229" s="3"/>
+      <c r="AC229" s="3"/>
+      <c r="AD229" s="3"/>
+      <c r="AE229" s="3"/>
+    </row>
+    <row r="230" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -8153,8 +9352,12 @@
       <c r="Y230" s="3"/>
       <c r="Z230" s="3"/>
       <c r="AA230" s="3"/>
-    </row>
-    <row r="231" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB230" s="3"/>
+      <c r="AC230" s="3"/>
+      <c r="AD230" s="3"/>
+      <c r="AE230" s="3"/>
+    </row>
+    <row r="231" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -8180,8 +9383,12 @@
       <c r="Y231" s="3"/>
       <c r="Z231" s="3"/>
       <c r="AA231" s="3"/>
-    </row>
-    <row r="232" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB231" s="3"/>
+      <c r="AC231" s="3"/>
+      <c r="AD231" s="3"/>
+      <c r="AE231" s="3"/>
+    </row>
+    <row r="232" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -8207,8 +9414,12 @@
       <c r="Y232" s="3"/>
       <c r="Z232" s="3"/>
       <c r="AA232" s="3"/>
-    </row>
-    <row r="233" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB232" s="3"/>
+      <c r="AC232" s="3"/>
+      <c r="AD232" s="3"/>
+      <c r="AE232" s="3"/>
+    </row>
+    <row r="233" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -8234,8 +9445,12 @@
       <c r="Y233" s="3"/>
       <c r="Z233" s="3"/>
       <c r="AA233" s="3"/>
-    </row>
-    <row r="234" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB233" s="3"/>
+      <c r="AC233" s="3"/>
+      <c r="AD233" s="3"/>
+      <c r="AE233" s="3"/>
+    </row>
+    <row r="234" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -8261,8 +9476,12 @@
       <c r="Y234" s="3"/>
       <c r="Z234" s="3"/>
       <c r="AA234" s="3"/>
-    </row>
-    <row r="235" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB234" s="3"/>
+      <c r="AC234" s="3"/>
+      <c r="AD234" s="3"/>
+      <c r="AE234" s="3"/>
+    </row>
+    <row r="235" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -8288,8 +9507,12 @@
       <c r="Y235" s="3"/>
       <c r="Z235" s="3"/>
       <c r="AA235" s="3"/>
-    </row>
-    <row r="236" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB235" s="3"/>
+      <c r="AC235" s="3"/>
+      <c r="AD235" s="3"/>
+      <c r="AE235" s="3"/>
+    </row>
+    <row r="236" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -8315,8 +9538,12 @@
       <c r="Y236" s="3"/>
       <c r="Z236" s="3"/>
       <c r="AA236" s="3"/>
-    </row>
-    <row r="237" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB236" s="3"/>
+      <c r="AC236" s="3"/>
+      <c r="AD236" s="3"/>
+      <c r="AE236" s="3"/>
+    </row>
+    <row r="237" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -8342,8 +9569,12 @@
       <c r="Y237" s="3"/>
       <c r="Z237" s="3"/>
       <c r="AA237" s="3"/>
-    </row>
-    <row r="238" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB237" s="3"/>
+      <c r="AC237" s="3"/>
+      <c r="AD237" s="3"/>
+      <c r="AE237" s="3"/>
+    </row>
+    <row r="238" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -8369,8 +9600,12 @@
       <c r="Y238" s="3"/>
       <c r="Z238" s="3"/>
       <c r="AA238" s="3"/>
-    </row>
-    <row r="239" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB238" s="3"/>
+      <c r="AC238" s="3"/>
+      <c r="AD238" s="3"/>
+      <c r="AE238" s="3"/>
+    </row>
+    <row r="239" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -8396,8 +9631,12 @@
       <c r="Y239" s="3"/>
       <c r="Z239" s="3"/>
       <c r="AA239" s="3"/>
-    </row>
-    <row r="240" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB239" s="3"/>
+      <c r="AC239" s="3"/>
+      <c r="AD239" s="3"/>
+      <c r="AE239" s="3"/>
+    </row>
+    <row r="240" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -8423,8 +9662,12 @@
       <c r="Y240" s="3"/>
       <c r="Z240" s="3"/>
       <c r="AA240" s="3"/>
-    </row>
-    <row r="241" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB240" s="3"/>
+      <c r="AC240" s="3"/>
+      <c r="AD240" s="3"/>
+      <c r="AE240" s="3"/>
+    </row>
+    <row r="241" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -8450,8 +9693,12 @@
       <c r="Y241" s="3"/>
       <c r="Z241" s="3"/>
       <c r="AA241" s="3"/>
-    </row>
-    <row r="242" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB241" s="3"/>
+      <c r="AC241" s="3"/>
+      <c r="AD241" s="3"/>
+      <c r="AE241" s="3"/>
+    </row>
+    <row r="242" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -8477,8 +9724,12 @@
       <c r="Y242" s="3"/>
       <c r="Z242" s="3"/>
       <c r="AA242" s="3"/>
-    </row>
-    <row r="243" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB242" s="3"/>
+      <c r="AC242" s="3"/>
+      <c r="AD242" s="3"/>
+      <c r="AE242" s="3"/>
+    </row>
+    <row r="243" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -8504,8 +9755,12 @@
       <c r="Y243" s="3"/>
       <c r="Z243" s="3"/>
       <c r="AA243" s="3"/>
-    </row>
-    <row r="244" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB243" s="3"/>
+      <c r="AC243" s="3"/>
+      <c r="AD243" s="3"/>
+      <c r="AE243" s="3"/>
+    </row>
+    <row r="244" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -8531,8 +9786,12 @@
       <c r="Y244" s="3"/>
       <c r="Z244" s="3"/>
       <c r="AA244" s="3"/>
-    </row>
-    <row r="245" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB244" s="3"/>
+      <c r="AC244" s="3"/>
+      <c r="AD244" s="3"/>
+      <c r="AE244" s="3"/>
+    </row>
+    <row r="245" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -8558,8 +9817,12 @@
       <c r="Y245" s="3"/>
       <c r="Z245" s="3"/>
       <c r="AA245" s="3"/>
-    </row>
-    <row r="246" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB245" s="3"/>
+      <c r="AC245" s="3"/>
+      <c r="AD245" s="3"/>
+      <c r="AE245" s="3"/>
+    </row>
+    <row r="246" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -8585,8 +9848,12 @@
       <c r="Y246" s="3"/>
       <c r="Z246" s="3"/>
       <c r="AA246" s="3"/>
-    </row>
-    <row r="247" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB246" s="3"/>
+      <c r="AC246" s="3"/>
+      <c r="AD246" s="3"/>
+      <c r="AE246" s="3"/>
+    </row>
+    <row r="247" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -8612,8 +9879,12 @@
       <c r="Y247" s="3"/>
       <c r="Z247" s="3"/>
       <c r="AA247" s="3"/>
-    </row>
-    <row r="248" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB247" s="3"/>
+      <c r="AC247" s="3"/>
+      <c r="AD247" s="3"/>
+      <c r="AE247" s="3"/>
+    </row>
+    <row r="248" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -8639,8 +9910,12 @@
       <c r="Y248" s="3"/>
       <c r="Z248" s="3"/>
       <c r="AA248" s="3"/>
-    </row>
-    <row r="249" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB248" s="3"/>
+      <c r="AC248" s="3"/>
+      <c r="AD248" s="3"/>
+      <c r="AE248" s="3"/>
+    </row>
+    <row r="249" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -8666,8 +9941,12 @@
       <c r="Y249" s="3"/>
       <c r="Z249" s="3"/>
       <c r="AA249" s="3"/>
-    </row>
-    <row r="250" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB249" s="3"/>
+      <c r="AC249" s="3"/>
+      <c r="AD249" s="3"/>
+      <c r="AE249" s="3"/>
+    </row>
+    <row r="250" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -8693,8 +9972,12 @@
       <c r="Y250" s="3"/>
       <c r="Z250" s="3"/>
       <c r="AA250" s="3"/>
-    </row>
-    <row r="251" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB250" s="3"/>
+      <c r="AC250" s="3"/>
+      <c r="AD250" s="3"/>
+      <c r="AE250" s="3"/>
+    </row>
+    <row r="251" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -8720,8 +10003,12 @@
       <c r="Y251" s="3"/>
       <c r="Z251" s="3"/>
       <c r="AA251" s="3"/>
-    </row>
-    <row r="252" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB251" s="3"/>
+      <c r="AC251" s="3"/>
+      <c r="AD251" s="3"/>
+      <c r="AE251" s="3"/>
+    </row>
+    <row r="252" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -8747,8 +10034,12 @@
       <c r="Y252" s="3"/>
       <c r="Z252" s="3"/>
       <c r="AA252" s="3"/>
-    </row>
-    <row r="253" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB252" s="3"/>
+      <c r="AC252" s="3"/>
+      <c r="AD252" s="3"/>
+      <c r="AE252" s="3"/>
+    </row>
+    <row r="253" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -8774,8 +10065,12 @@
       <c r="Y253" s="3"/>
       <c r="Z253" s="3"/>
       <c r="AA253" s="3"/>
-    </row>
-    <row r="254" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB253" s="3"/>
+      <c r="AC253" s="3"/>
+      <c r="AD253" s="3"/>
+      <c r="AE253" s="3"/>
+    </row>
+    <row r="254" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -8801,8 +10096,12 @@
       <c r="Y254" s="3"/>
       <c r="Z254" s="3"/>
       <c r="AA254" s="3"/>
-    </row>
-    <row r="255" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB254" s="3"/>
+      <c r="AC254" s="3"/>
+      <c r="AD254" s="3"/>
+      <c r="AE254" s="3"/>
+    </row>
+    <row r="255" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -8828,8 +10127,12 @@
       <c r="Y255" s="3"/>
       <c r="Z255" s="3"/>
       <c r="AA255" s="3"/>
-    </row>
-    <row r="256" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB255" s="3"/>
+      <c r="AC255" s="3"/>
+      <c r="AD255" s="3"/>
+      <c r="AE255" s="3"/>
+    </row>
+    <row r="256" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -8855,8 +10158,12 @@
       <c r="Y256" s="3"/>
       <c r="Z256" s="3"/>
       <c r="AA256" s="3"/>
-    </row>
-    <row r="257" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB256" s="3"/>
+      <c r="AC256" s="3"/>
+      <c r="AD256" s="3"/>
+      <c r="AE256" s="3"/>
+    </row>
+    <row r="257" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -8882,8 +10189,12 @@
       <c r="Y257" s="3"/>
       <c r="Z257" s="3"/>
       <c r="AA257" s="3"/>
-    </row>
-    <row r="258" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB257" s="3"/>
+      <c r="AC257" s="3"/>
+      <c r="AD257" s="3"/>
+      <c r="AE257" s="3"/>
+    </row>
+    <row r="258" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -8909,8 +10220,12 @@
       <c r="Y258" s="3"/>
       <c r="Z258" s="3"/>
       <c r="AA258" s="3"/>
-    </row>
-    <row r="259" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB258" s="3"/>
+      <c r="AC258" s="3"/>
+      <c r="AD258" s="3"/>
+      <c r="AE258" s="3"/>
+    </row>
+    <row r="259" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -8936,8 +10251,12 @@
       <c r="Y259" s="3"/>
       <c r="Z259" s="3"/>
       <c r="AA259" s="3"/>
-    </row>
-    <row r="260" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB259" s="3"/>
+      <c r="AC259" s="3"/>
+      <c r="AD259" s="3"/>
+      <c r="AE259" s="3"/>
+    </row>
+    <row r="260" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -8963,8 +10282,12 @@
       <c r="Y260" s="3"/>
       <c r="Z260" s="3"/>
       <c r="AA260" s="3"/>
-    </row>
-    <row r="261" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB260" s="3"/>
+      <c r="AC260" s="3"/>
+      <c r="AD260" s="3"/>
+      <c r="AE260" s="3"/>
+    </row>
+    <row r="261" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -8990,8 +10313,12 @@
       <c r="Y261" s="3"/>
       <c r="Z261" s="3"/>
       <c r="AA261" s="3"/>
-    </row>
-    <row r="262" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB261" s="3"/>
+      <c r="AC261" s="3"/>
+      <c r="AD261" s="3"/>
+      <c r="AE261" s="3"/>
+    </row>
+    <row r="262" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -9017,8 +10344,12 @@
       <c r="Y262" s="3"/>
       <c r="Z262" s="3"/>
       <c r="AA262" s="3"/>
-    </row>
-    <row r="263" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB262" s="3"/>
+      <c r="AC262" s="3"/>
+      <c r="AD262" s="3"/>
+      <c r="AE262" s="3"/>
+    </row>
+    <row r="263" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -9044,8 +10375,12 @@
       <c r="Y263" s="3"/>
       <c r="Z263" s="3"/>
       <c r="AA263" s="3"/>
-    </row>
-    <row r="264" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB263" s="3"/>
+      <c r="AC263" s="3"/>
+      <c r="AD263" s="3"/>
+      <c r="AE263" s="3"/>
+    </row>
+    <row r="264" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -9071,8 +10406,12 @@
       <c r="Y264" s="3"/>
       <c r="Z264" s="3"/>
       <c r="AA264" s="3"/>
-    </row>
-    <row r="265" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB264" s="3"/>
+      <c r="AC264" s="3"/>
+      <c r="AD264" s="3"/>
+      <c r="AE264" s="3"/>
+    </row>
+    <row r="265" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -9098,8 +10437,12 @@
       <c r="Y265" s="3"/>
       <c r="Z265" s="3"/>
       <c r="AA265" s="3"/>
-    </row>
-    <row r="266" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB265" s="3"/>
+      <c r="AC265" s="3"/>
+      <c r="AD265" s="3"/>
+      <c r="AE265" s="3"/>
+    </row>
+    <row r="266" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -9125,8 +10468,12 @@
       <c r="Y266" s="3"/>
       <c r="Z266" s="3"/>
       <c r="AA266" s="3"/>
-    </row>
-    <row r="267" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB266" s="3"/>
+      <c r="AC266" s="3"/>
+      <c r="AD266" s="3"/>
+      <c r="AE266" s="3"/>
+    </row>
+    <row r="267" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -9152,8 +10499,12 @@
       <c r="Y267" s="3"/>
       <c r="Z267" s="3"/>
       <c r="AA267" s="3"/>
-    </row>
-    <row r="268" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB267" s="3"/>
+      <c r="AC267" s="3"/>
+      <c r="AD267" s="3"/>
+      <c r="AE267" s="3"/>
+    </row>
+    <row r="268" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -9179,8 +10530,12 @@
       <c r="Y268" s="3"/>
       <c r="Z268" s="3"/>
       <c r="AA268" s="3"/>
-    </row>
-    <row r="269" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB268" s="3"/>
+      <c r="AC268" s="3"/>
+      <c r="AD268" s="3"/>
+      <c r="AE268" s="3"/>
+    </row>
+    <row r="269" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -9206,8 +10561,12 @@
       <c r="Y269" s="3"/>
       <c r="Z269" s="3"/>
       <c r="AA269" s="3"/>
-    </row>
-    <row r="270" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB269" s="3"/>
+      <c r="AC269" s="3"/>
+      <c r="AD269" s="3"/>
+      <c r="AE269" s="3"/>
+    </row>
+    <row r="270" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -9233,8 +10592,12 @@
       <c r="Y270" s="3"/>
       <c r="Z270" s="3"/>
       <c r="AA270" s="3"/>
-    </row>
-    <row r="271" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB270" s="3"/>
+      <c r="AC270" s="3"/>
+      <c r="AD270" s="3"/>
+      <c r="AE270" s="3"/>
+    </row>
+    <row r="271" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -9260,8 +10623,12 @@
       <c r="Y271" s="3"/>
       <c r="Z271" s="3"/>
       <c r="AA271" s="3"/>
-    </row>
-    <row r="272" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB271" s="3"/>
+      <c r="AC271" s="3"/>
+      <c r="AD271" s="3"/>
+      <c r="AE271" s="3"/>
+    </row>
+    <row r="272" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -9287,8 +10654,12 @@
       <c r="Y272" s="3"/>
       <c r="Z272" s="3"/>
       <c r="AA272" s="3"/>
-    </row>
-    <row r="273" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB272" s="3"/>
+      <c r="AC272" s="3"/>
+      <c r="AD272" s="3"/>
+      <c r="AE272" s="3"/>
+    </row>
+    <row r="273" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -9314,8 +10685,12 @@
       <c r="Y273" s="3"/>
       <c r="Z273" s="3"/>
       <c r="AA273" s="3"/>
-    </row>
-    <row r="274" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB273" s="3"/>
+      <c r="AC273" s="3"/>
+      <c r="AD273" s="3"/>
+      <c r="AE273" s="3"/>
+    </row>
+    <row r="274" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -9341,8 +10716,12 @@
       <c r="Y274" s="3"/>
       <c r="Z274" s="3"/>
       <c r="AA274" s="3"/>
-    </row>
-    <row r="275" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB274" s="3"/>
+      <c r="AC274" s="3"/>
+      <c r="AD274" s="3"/>
+      <c r="AE274" s="3"/>
+    </row>
+    <row r="275" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -9368,8 +10747,12 @@
       <c r="Y275" s="3"/>
       <c r="Z275" s="3"/>
       <c r="AA275" s="3"/>
-    </row>
-    <row r="276" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB275" s="3"/>
+      <c r="AC275" s="3"/>
+      <c r="AD275" s="3"/>
+      <c r="AE275" s="3"/>
+    </row>
+    <row r="276" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -9395,8 +10778,12 @@
       <c r="Y276" s="3"/>
       <c r="Z276" s="3"/>
       <c r="AA276" s="3"/>
-    </row>
-    <row r="277" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB276" s="3"/>
+      <c r="AC276" s="3"/>
+      <c r="AD276" s="3"/>
+      <c r="AE276" s="3"/>
+    </row>
+    <row r="277" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -9422,8 +10809,12 @@
       <c r="Y277" s="3"/>
       <c r="Z277" s="3"/>
       <c r="AA277" s="3"/>
-    </row>
-    <row r="278" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB277" s="3"/>
+      <c r="AC277" s="3"/>
+      <c r="AD277" s="3"/>
+      <c r="AE277" s="3"/>
+    </row>
+    <row r="278" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -9449,8 +10840,12 @@
       <c r="Y278" s="3"/>
       <c r="Z278" s="3"/>
       <c r="AA278" s="3"/>
-    </row>
-    <row r="279" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB278" s="3"/>
+      <c r="AC278" s="3"/>
+      <c r="AD278" s="3"/>
+      <c r="AE278" s="3"/>
+    </row>
+    <row r="279" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -9476,8 +10871,12 @@
       <c r="Y279" s="3"/>
       <c r="Z279" s="3"/>
       <c r="AA279" s="3"/>
-    </row>
-    <row r="280" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB279" s="3"/>
+      <c r="AC279" s="3"/>
+      <c r="AD279" s="3"/>
+      <c r="AE279" s="3"/>
+    </row>
+    <row r="280" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -9503,8 +10902,12 @@
       <c r="Y280" s="3"/>
       <c r="Z280" s="3"/>
       <c r="AA280" s="3"/>
-    </row>
-    <row r="281" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB280" s="3"/>
+      <c r="AC280" s="3"/>
+      <c r="AD280" s="3"/>
+      <c r="AE280" s="3"/>
+    </row>
+    <row r="281" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -9530,8 +10933,12 @@
       <c r="Y281" s="3"/>
       <c r="Z281" s="3"/>
       <c r="AA281" s="3"/>
-    </row>
-    <row r="282" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB281" s="3"/>
+      <c r="AC281" s="3"/>
+      <c r="AD281" s="3"/>
+      <c r="AE281" s="3"/>
+    </row>
+    <row r="282" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -9557,8 +10964,12 @@
       <c r="Y282" s="3"/>
       <c r="Z282" s="3"/>
       <c r="AA282" s="3"/>
-    </row>
-    <row r="283" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB282" s="3"/>
+      <c r="AC282" s="3"/>
+      <c r="AD282" s="3"/>
+      <c r="AE282" s="3"/>
+    </row>
+    <row r="283" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -9584,8 +10995,12 @@
       <c r="Y283" s="3"/>
       <c r="Z283" s="3"/>
       <c r="AA283" s="3"/>
-    </row>
-    <row r="284" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB283" s="3"/>
+      <c r="AC283" s="3"/>
+      <c r="AD283" s="3"/>
+      <c r="AE283" s="3"/>
+    </row>
+    <row r="284" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -9611,8 +11026,12 @@
       <c r="Y284" s="3"/>
       <c r="Z284" s="3"/>
       <c r="AA284" s="3"/>
-    </row>
-    <row r="285" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB284" s="3"/>
+      <c r="AC284" s="3"/>
+      <c r="AD284" s="3"/>
+      <c r="AE284" s="3"/>
+    </row>
+    <row r="285" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -9638,8 +11057,12 @@
       <c r="Y285" s="3"/>
       <c r="Z285" s="3"/>
       <c r="AA285" s="3"/>
-    </row>
-    <row r="286" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB285" s="3"/>
+      <c r="AC285" s="3"/>
+      <c r="AD285" s="3"/>
+      <c r="AE285" s="3"/>
+    </row>
+    <row r="286" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -9665,8 +11088,12 @@
       <c r="Y286" s="3"/>
       <c r="Z286" s="3"/>
       <c r="AA286" s="3"/>
-    </row>
-    <row r="287" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB286" s="3"/>
+      <c r="AC286" s="3"/>
+      <c r="AD286" s="3"/>
+      <c r="AE286" s="3"/>
+    </row>
+    <row r="287" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -9692,8 +11119,12 @@
       <c r="Y287" s="3"/>
       <c r="Z287" s="3"/>
       <c r="AA287" s="3"/>
-    </row>
-    <row r="288" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB287" s="3"/>
+      <c r="AC287" s="3"/>
+      <c r="AD287" s="3"/>
+      <c r="AE287" s="3"/>
+    </row>
+    <row r="288" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -9719,8 +11150,12 @@
       <c r="Y288" s="3"/>
       <c r="Z288" s="3"/>
       <c r="AA288" s="3"/>
-    </row>
-    <row r="289" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB288" s="3"/>
+      <c r="AC288" s="3"/>
+      <c r="AD288" s="3"/>
+      <c r="AE288" s="3"/>
+    </row>
+    <row r="289" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -9746,8 +11181,12 @@
       <c r="Y289" s="3"/>
       <c r="Z289" s="3"/>
       <c r="AA289" s="3"/>
-    </row>
-    <row r="290" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB289" s="3"/>
+      <c r="AC289" s="3"/>
+      <c r="AD289" s="3"/>
+      <c r="AE289" s="3"/>
+    </row>
+    <row r="290" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -9773,8 +11212,12 @@
       <c r="Y290" s="3"/>
       <c r="Z290" s="3"/>
       <c r="AA290" s="3"/>
-    </row>
-    <row r="291" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB290" s="3"/>
+      <c r="AC290" s="3"/>
+      <c r="AD290" s="3"/>
+      <c r="AE290" s="3"/>
+    </row>
+    <row r="291" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -9800,8 +11243,12 @@
       <c r="Y291" s="3"/>
       <c r="Z291" s="3"/>
       <c r="AA291" s="3"/>
-    </row>
-    <row r="292" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB291" s="3"/>
+      <c r="AC291" s="3"/>
+      <c r="AD291" s="3"/>
+      <c r="AE291" s="3"/>
+    </row>
+    <row r="292" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -9827,8 +11274,12 @@
       <c r="Y292" s="3"/>
       <c r="Z292" s="3"/>
       <c r="AA292" s="3"/>
-    </row>
-    <row r="293" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB292" s="3"/>
+      <c r="AC292" s="3"/>
+      <c r="AD292" s="3"/>
+      <c r="AE292" s="3"/>
+    </row>
+    <row r="293" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -9854,8 +11305,12 @@
       <c r="Y293" s="3"/>
       <c r="Z293" s="3"/>
       <c r="AA293" s="3"/>
-    </row>
-    <row r="294" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB293" s="3"/>
+      <c r="AC293" s="3"/>
+      <c r="AD293" s="3"/>
+      <c r="AE293" s="3"/>
+    </row>
+    <row r="294" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -9881,8 +11336,12 @@
       <c r="Y294" s="3"/>
       <c r="Z294" s="3"/>
       <c r="AA294" s="3"/>
-    </row>
-    <row r="295" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB294" s="3"/>
+      <c r="AC294" s="3"/>
+      <c r="AD294" s="3"/>
+      <c r="AE294" s="3"/>
+    </row>
+    <row r="295" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -9908,8 +11367,12 @@
       <c r="Y295" s="3"/>
       <c r="Z295" s="3"/>
       <c r="AA295" s="3"/>
-    </row>
-    <row r="296" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB295" s="3"/>
+      <c r="AC295" s="3"/>
+      <c r="AD295" s="3"/>
+      <c r="AE295" s="3"/>
+    </row>
+    <row r="296" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -9935,8 +11398,12 @@
       <c r="Y296" s="3"/>
       <c r="Z296" s="3"/>
       <c r="AA296" s="3"/>
-    </row>
-    <row r="297" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB296" s="3"/>
+      <c r="AC296" s="3"/>
+      <c r="AD296" s="3"/>
+      <c r="AE296" s="3"/>
+    </row>
+    <row r="297" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -9962,8 +11429,12 @@
       <c r="Y297" s="3"/>
       <c r="Z297" s="3"/>
       <c r="AA297" s="3"/>
-    </row>
-    <row r="298" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB297" s="3"/>
+      <c r="AC297" s="3"/>
+      <c r="AD297" s="3"/>
+      <c r="AE297" s="3"/>
+    </row>
+    <row r="298" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -9989,8 +11460,12 @@
       <c r="Y298" s="3"/>
       <c r="Z298" s="3"/>
       <c r="AA298" s="3"/>
-    </row>
-    <row r="299" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB298" s="3"/>
+      <c r="AC298" s="3"/>
+      <c r="AD298" s="3"/>
+      <c r="AE298" s="3"/>
+    </row>
+    <row r="299" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -10016,8 +11491,12 @@
       <c r="Y299" s="3"/>
       <c r="Z299" s="3"/>
       <c r="AA299" s="3"/>
-    </row>
-    <row r="300" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB299" s="3"/>
+      <c r="AC299" s="3"/>
+      <c r="AD299" s="3"/>
+      <c r="AE299" s="3"/>
+    </row>
+    <row r="300" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -10043,8 +11522,12 @@
       <c r="Y300" s="3"/>
       <c r="Z300" s="3"/>
       <c r="AA300" s="3"/>
-    </row>
-    <row r="301" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB300" s="3"/>
+      <c r="AC300" s="3"/>
+      <c r="AD300" s="3"/>
+      <c r="AE300" s="3"/>
+    </row>
+    <row r="301" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -10070,8 +11553,12 @@
       <c r="Y301" s="3"/>
       <c r="Z301" s="3"/>
       <c r="AA301" s="3"/>
-    </row>
-    <row r="302" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB301" s="3"/>
+      <c r="AC301" s="3"/>
+      <c r="AD301" s="3"/>
+      <c r="AE301" s="3"/>
+    </row>
+    <row r="302" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -10097,8 +11584,12 @@
       <c r="Y302" s="3"/>
       <c r="Z302" s="3"/>
       <c r="AA302" s="3"/>
-    </row>
-    <row r="303" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB302" s="3"/>
+      <c r="AC302" s="3"/>
+      <c r="AD302" s="3"/>
+      <c r="AE302" s="3"/>
+    </row>
+    <row r="303" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -10124,8 +11615,12 @@
       <c r="Y303" s="3"/>
       <c r="Z303" s="3"/>
       <c r="AA303" s="3"/>
-    </row>
-    <row r="304" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB303" s="3"/>
+      <c r="AC303" s="3"/>
+      <c r="AD303" s="3"/>
+      <c r="AE303" s="3"/>
+    </row>
+    <row r="304" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -10151,8 +11646,12 @@
       <c r="Y304" s="3"/>
       <c r="Z304" s="3"/>
       <c r="AA304" s="3"/>
-    </row>
-    <row r="305" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB304" s="3"/>
+      <c r="AC304" s="3"/>
+      <c r="AD304" s="3"/>
+      <c r="AE304" s="3"/>
+    </row>
+    <row r="305" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -10178,8 +11677,12 @@
       <c r="Y305" s="3"/>
       <c r="Z305" s="3"/>
       <c r="AA305" s="3"/>
-    </row>
-    <row r="306" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB305" s="3"/>
+      <c r="AC305" s="3"/>
+      <c r="AD305" s="3"/>
+      <c r="AE305" s="3"/>
+    </row>
+    <row r="306" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -10205,8 +11708,12 @@
       <c r="Y306" s="3"/>
       <c r="Z306" s="3"/>
       <c r="AA306" s="3"/>
-    </row>
-    <row r="307" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB306" s="3"/>
+      <c r="AC306" s="3"/>
+      <c r="AD306" s="3"/>
+      <c r="AE306" s="3"/>
+    </row>
+    <row r="307" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -10232,8 +11739,12 @@
       <c r="Y307" s="3"/>
       <c r="Z307" s="3"/>
       <c r="AA307" s="3"/>
-    </row>
-    <row r="308" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB307" s="3"/>
+      <c r="AC307" s="3"/>
+      <c r="AD307" s="3"/>
+      <c r="AE307" s="3"/>
+    </row>
+    <row r="308" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -10259,8 +11770,12 @@
       <c r="Y308" s="3"/>
       <c r="Z308" s="3"/>
       <c r="AA308" s="3"/>
-    </row>
-    <row r="309" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB308" s="3"/>
+      <c r="AC308" s="3"/>
+      <c r="AD308" s="3"/>
+      <c r="AE308" s="3"/>
+    </row>
+    <row r="309" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -10286,8 +11801,12 @@
       <c r="Y309" s="3"/>
       <c r="Z309" s="3"/>
       <c r="AA309" s="3"/>
-    </row>
-    <row r="310" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB309" s="3"/>
+      <c r="AC309" s="3"/>
+      <c r="AD309" s="3"/>
+      <c r="AE309" s="3"/>
+    </row>
+    <row r="310" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -10313,8 +11832,12 @@
       <c r="Y310" s="3"/>
       <c r="Z310" s="3"/>
       <c r="AA310" s="3"/>
-    </row>
-    <row r="311" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB310" s="3"/>
+      <c r="AC310" s="3"/>
+      <c r="AD310" s="3"/>
+      <c r="AE310" s="3"/>
+    </row>
+    <row r="311" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -10340,8 +11863,12 @@
       <c r="Y311" s="3"/>
       <c r="Z311" s="3"/>
       <c r="AA311" s="3"/>
-    </row>
-    <row r="312" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB311" s="3"/>
+      <c r="AC311" s="3"/>
+      <c r="AD311" s="3"/>
+      <c r="AE311" s="3"/>
+    </row>
+    <row r="312" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -10367,8 +11894,12 @@
       <c r="Y312" s="3"/>
       <c r="Z312" s="3"/>
       <c r="AA312" s="3"/>
-    </row>
-    <row r="313" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB312" s="3"/>
+      <c r="AC312" s="3"/>
+      <c r="AD312" s="3"/>
+      <c r="AE312" s="3"/>
+    </row>
+    <row r="313" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -10394,8 +11925,12 @@
       <c r="Y313" s="3"/>
       <c r="Z313" s="3"/>
       <c r="AA313" s="3"/>
-    </row>
-    <row r="314" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB313" s="3"/>
+      <c r="AC313" s="3"/>
+      <c r="AD313" s="3"/>
+      <c r="AE313" s="3"/>
+    </row>
+    <row r="314" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -10421,8 +11956,12 @@
       <c r="Y314" s="3"/>
       <c r="Z314" s="3"/>
       <c r="AA314" s="3"/>
-    </row>
-    <row r="315" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB314" s="3"/>
+      <c r="AC314" s="3"/>
+      <c r="AD314" s="3"/>
+      <c r="AE314" s="3"/>
+    </row>
+    <row r="315" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -10448,8 +11987,12 @@
       <c r="Y315" s="3"/>
       <c r="Z315" s="3"/>
       <c r="AA315" s="3"/>
-    </row>
-    <row r="316" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB315" s="3"/>
+      <c r="AC315" s="3"/>
+      <c r="AD315" s="3"/>
+      <c r="AE315" s="3"/>
+    </row>
+    <row r="316" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -10475,8 +12018,12 @@
       <c r="Y316" s="3"/>
       <c r="Z316" s="3"/>
       <c r="AA316" s="3"/>
-    </row>
-    <row r="317" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB316" s="3"/>
+      <c r="AC316" s="3"/>
+      <c r="AD316" s="3"/>
+      <c r="AE316" s="3"/>
+    </row>
+    <row r="317" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -10502,8 +12049,12 @@
       <c r="Y317" s="3"/>
       <c r="Z317" s="3"/>
       <c r="AA317" s="3"/>
-    </row>
-    <row r="318" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB317" s="3"/>
+      <c r="AC317" s="3"/>
+      <c r="AD317" s="3"/>
+      <c r="AE317" s="3"/>
+    </row>
+    <row r="318" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -10529,8 +12080,12 @@
       <c r="Y318" s="3"/>
       <c r="Z318" s="3"/>
       <c r="AA318" s="3"/>
-    </row>
-    <row r="319" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB318" s="3"/>
+      <c r="AC318" s="3"/>
+      <c r="AD318" s="3"/>
+      <c r="AE318" s="3"/>
+    </row>
+    <row r="319" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -10556,8 +12111,12 @@
       <c r="Y319" s="3"/>
       <c r="Z319" s="3"/>
       <c r="AA319" s="3"/>
-    </row>
-    <row r="320" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB319" s="3"/>
+      <c r="AC319" s="3"/>
+      <c r="AD319" s="3"/>
+      <c r="AE319" s="3"/>
+    </row>
+    <row r="320" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -10583,8 +12142,12 @@
       <c r="Y320" s="3"/>
       <c r="Z320" s="3"/>
       <c r="AA320" s="3"/>
-    </row>
-    <row r="321" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB320" s="3"/>
+      <c r="AC320" s="3"/>
+      <c r="AD320" s="3"/>
+      <c r="AE320" s="3"/>
+    </row>
+    <row r="321" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -10610,8 +12173,12 @@
       <c r="Y321" s="3"/>
       <c r="Z321" s="3"/>
       <c r="AA321" s="3"/>
-    </row>
-    <row r="322" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB321" s="3"/>
+      <c r="AC321" s="3"/>
+      <c r="AD321" s="3"/>
+      <c r="AE321" s="3"/>
+    </row>
+    <row r="322" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -10637,8 +12204,12 @@
       <c r="Y322" s="3"/>
       <c r="Z322" s="3"/>
       <c r="AA322" s="3"/>
-    </row>
-    <row r="323" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB322" s="3"/>
+      <c r="AC322" s="3"/>
+      <c r="AD322" s="3"/>
+      <c r="AE322" s="3"/>
+    </row>
+    <row r="323" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -10664,8 +12235,12 @@
       <c r="Y323" s="3"/>
       <c r="Z323" s="3"/>
       <c r="AA323" s="3"/>
-    </row>
-    <row r="324" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB323" s="3"/>
+      <c r="AC323" s="3"/>
+      <c r="AD323" s="3"/>
+      <c r="AE323" s="3"/>
+    </row>
+    <row r="324" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -10691,8 +12266,12 @@
       <c r="Y324" s="3"/>
       <c r="Z324" s="3"/>
       <c r="AA324" s="3"/>
-    </row>
-    <row r="325" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB324" s="3"/>
+      <c r="AC324" s="3"/>
+      <c r="AD324" s="3"/>
+      <c r="AE324" s="3"/>
+    </row>
+    <row r="325" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -10718,170 +12297,138 @@
       <c r="Y325" s="3"/>
       <c r="Z325" s="3"/>
       <c r="AA325" s="3"/>
-    </row>
-    <row r="326" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C326" s="3"/>
-      <c r="D326" s="3"/>
-      <c r="E326" s="3"/>
-      <c r="F326" s="3"/>
-      <c r="G326" s="3"/>
-      <c r="H326" s="3"/>
-      <c r="I326" s="3"/>
-      <c r="J326" s="3"/>
-      <c r="K326" s="3"/>
-      <c r="L326" s="3"/>
-      <c r="M326" s="3"/>
-      <c r="N326" s="3"/>
-      <c r="O326" s="3"/>
-      <c r="P326" s="3"/>
-      <c r="Q326" s="3"/>
-      <c r="R326" s="3"/>
-      <c r="S326" s="3"/>
-      <c r="T326" s="3"/>
-      <c r="U326" s="3"/>
-      <c r="V326" s="3"/>
-      <c r="W326" s="3"/>
-      <c r="X326" s="3"/>
-      <c r="Y326" s="3"/>
-      <c r="Z326" s="3"/>
-      <c r="AA326" s="3"/>
-    </row>
-    <row r="327" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C327" s="3"/>
-      <c r="D327" s="3"/>
-      <c r="E327" s="3"/>
-      <c r="F327" s="3"/>
-      <c r="G327" s="3"/>
-      <c r="H327" s="3"/>
-      <c r="I327" s="3"/>
-      <c r="J327" s="3"/>
-      <c r="K327" s="3"/>
-      <c r="L327" s="3"/>
-      <c r="M327" s="3"/>
-      <c r="N327" s="3"/>
-      <c r="O327" s="3"/>
-      <c r="P327" s="3"/>
-      <c r="Q327" s="3"/>
-      <c r="R327" s="3"/>
-      <c r="S327" s="3"/>
-      <c r="T327" s="3"/>
-      <c r="U327" s="3"/>
-      <c r="V327" s="3"/>
-      <c r="W327" s="3"/>
-      <c r="X327" s="3"/>
-      <c r="Y327" s="3"/>
-      <c r="Z327" s="3"/>
-      <c r="AA327" s="3"/>
-    </row>
-    <row r="328" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C328" s="3"/>
-      <c r="D328" s="3"/>
-      <c r="E328" s="3"/>
-      <c r="F328" s="3"/>
-      <c r="G328" s="3"/>
-      <c r="H328" s="3"/>
-      <c r="I328" s="3"/>
-      <c r="J328" s="3"/>
-      <c r="K328" s="3"/>
-      <c r="L328" s="3"/>
-      <c r="M328" s="3"/>
-      <c r="N328" s="3"/>
-      <c r="O328" s="3"/>
-      <c r="P328" s="3"/>
-      <c r="Q328" s="3"/>
-      <c r="R328" s="3"/>
-      <c r="S328" s="3"/>
-      <c r="T328" s="3"/>
-      <c r="U328" s="3"/>
-      <c r="V328" s="3"/>
-      <c r="W328" s="3"/>
-      <c r="X328" s="3"/>
-      <c r="Y328" s="3"/>
-      <c r="Z328" s="3"/>
-      <c r="AA328" s="3"/>
-    </row>
-    <row r="329" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C329" s="3"/>
-      <c r="D329" s="3"/>
-      <c r="E329" s="3"/>
-      <c r="F329" s="3"/>
-      <c r="G329" s="3"/>
-      <c r="H329" s="3"/>
-      <c r="I329" s="3"/>
-      <c r="J329" s="3"/>
-      <c r="K329" s="3"/>
-      <c r="L329" s="3"/>
-      <c r="M329" s="3"/>
-      <c r="N329" s="3"/>
-      <c r="O329" s="3"/>
-      <c r="P329" s="3"/>
-      <c r="Q329" s="3"/>
-      <c r="R329" s="3"/>
-      <c r="S329" s="3"/>
-      <c r="T329" s="3"/>
-      <c r="U329" s="3"/>
-      <c r="V329" s="3"/>
-      <c r="W329" s="3"/>
-      <c r="X329" s="3"/>
-      <c r="Y329" s="3"/>
-      <c r="Z329" s="3"/>
-      <c r="AA329" s="3"/>
-    </row>
-    <row r="330" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C330" s="3"/>
-      <c r="D330" s="3"/>
-      <c r="E330" s="3"/>
-      <c r="F330" s="3"/>
-      <c r="G330" s="3"/>
-      <c r="H330" s="3"/>
-      <c r="I330" s="3"/>
-      <c r="J330" s="3"/>
-      <c r="K330" s="3"/>
-      <c r="L330" s="3"/>
-      <c r="M330" s="3"/>
-      <c r="N330" s="3"/>
-      <c r="O330" s="3"/>
-      <c r="P330" s="3"/>
-      <c r="Q330" s="3"/>
-      <c r="R330" s="3"/>
-      <c r="S330" s="3"/>
-      <c r="T330" s="3"/>
-      <c r="U330" s="3"/>
-      <c r="V330" s="3"/>
-      <c r="W330" s="3"/>
-      <c r="X330" s="3"/>
-      <c r="Y330" s="3"/>
-      <c r="Z330" s="3"/>
-      <c r="AA330" s="3"/>
-    </row>
-    <row r="331" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C331" s="3"/>
-      <c r="D331" s="3"/>
-      <c r="E331" s="3"/>
-      <c r="F331" s="3"/>
-      <c r="G331" s="3"/>
-      <c r="H331" s="3"/>
-      <c r="I331" s="3"/>
-      <c r="J331" s="3"/>
-      <c r="K331" s="3"/>
-      <c r="L331" s="3"/>
-      <c r="M331" s="3"/>
-      <c r="N331" s="3"/>
-      <c r="O331" s="3"/>
-      <c r="P331" s="3"/>
-      <c r="Q331" s="3"/>
-      <c r="R331" s="3"/>
-      <c r="S331" s="3"/>
-      <c r="T331" s="3"/>
-      <c r="U331" s="3"/>
-      <c r="V331" s="3"/>
-      <c r="W331" s="3"/>
-      <c r="X331" s="3"/>
-      <c r="Y331" s="3"/>
-      <c r="Z331" s="3"/>
-      <c r="AA331" s="3"/>
-    </row>
-    <row r="332" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB325" s="3"/>
+      <c r="AC325" s="3"/>
+      <c r="AD325" s="3"/>
+      <c r="AE325" s="3"/>
+    </row>
+    <row r="326" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C326" s="20"/>
+      <c r="D326" s="20"/>
+      <c r="E326" s="20"/>
+      <c r="F326" s="20"/>
+      <c r="G326" s="20"/>
+      <c r="H326" s="20"/>
+      <c r="I326" s="20"/>
+      <c r="J326" s="20"/>
+      <c r="K326" s="20"/>
+      <c r="L326" s="20"/>
+      <c r="M326" s="20"/>
+      <c r="N326" s="20"/>
+      <c r="O326" s="20"/>
+      <c r="P326" s="20"/>
+      <c r="Q326" s="20"/>
+      <c r="R326" s="20"/>
+      <c r="S326" s="20"/>
+      <c r="T326" s="20"/>
+      <c r="U326" s="20"/>
+    </row>
+    <row r="327" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C327" s="20"/>
+      <c r="D327" s="20"/>
+      <c r="E327" s="20"/>
+      <c r="F327" s="20"/>
+      <c r="G327" s="20"/>
+      <c r="H327" s="20"/>
+      <c r="I327" s="20"/>
+      <c r="J327" s="20"/>
+      <c r="K327" s="20"/>
+      <c r="L327" s="20"/>
+      <c r="M327" s="20"/>
+      <c r="N327" s="20"/>
+      <c r="O327" s="20"/>
+      <c r="P327" s="20"/>
+      <c r="Q327" s="20"/>
+      <c r="R327" s="20"/>
+      <c r="S327" s="20"/>
+      <c r="T327" s="20"/>
+      <c r="U327" s="20"/>
+    </row>
+    <row r="328" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C328" s="20"/>
+      <c r="D328" s="20"/>
+      <c r="E328" s="20"/>
+      <c r="F328" s="20"/>
+      <c r="G328" s="20"/>
+      <c r="H328" s="20"/>
+      <c r="I328" s="20"/>
+      <c r="J328" s="20"/>
+      <c r="K328" s="20"/>
+      <c r="L328" s="20"/>
+      <c r="M328" s="20"/>
+      <c r="N328" s="20"/>
+      <c r="O328" s="20"/>
+      <c r="P328" s="20"/>
+      <c r="Q328" s="20"/>
+      <c r="R328" s="20"/>
+      <c r="S328" s="20"/>
+      <c r="T328" s="20"/>
+      <c r="U328" s="20"/>
+    </row>
+    <row r="329" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C329" s="20"/>
+      <c r="D329" s="20"/>
+      <c r="E329" s="20"/>
+      <c r="F329" s="20"/>
+      <c r="G329" s="20"/>
+      <c r="H329" s="20"/>
+      <c r="I329" s="20"/>
+      <c r="J329" s="20"/>
+      <c r="K329" s="20"/>
+      <c r="L329" s="20"/>
+      <c r="M329" s="20"/>
+      <c r="N329" s="20"/>
+      <c r="O329" s="20"/>
+      <c r="P329" s="20"/>
+      <c r="Q329" s="20"/>
+      <c r="R329" s="20"/>
+      <c r="S329" s="20"/>
+      <c r="T329" s="20"/>
+      <c r="U329" s="20"/>
+    </row>
+    <row r="330" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C330" s="20"/>
+      <c r="D330" s="20"/>
+      <c r="E330" s="20"/>
+      <c r="F330" s="20"/>
+      <c r="G330" s="20"/>
+      <c r="H330" s="20"/>
+      <c r="I330" s="20"/>
+      <c r="J330" s="20"/>
+      <c r="K330" s="20"/>
+      <c r="L330" s="20"/>
+      <c r="M330" s="20"/>
+      <c r="N330" s="20"/>
+      <c r="O330" s="20"/>
+      <c r="P330" s="20"/>
+      <c r="Q330" s="20"/>
+      <c r="R330" s="20"/>
+      <c r="S330" s="20"/>
+      <c r="T330" s="20"/>
+      <c r="U330" s="20"/>
+    </row>
+    <row r="331" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C331" s="20"/>
+      <c r="D331" s="20"/>
+      <c r="E331" s="20"/>
+      <c r="F331" s="20"/>
+      <c r="G331" s="20"/>
+      <c r="H331" s="20"/>
+      <c r="I331" s="20"/>
+      <c r="J331" s="20"/>
+      <c r="K331" s="20"/>
+      <c r="L331" s="20"/>
+      <c r="M331" s="20"/>
+      <c r="N331" s="20"/>
+      <c r="O331" s="20"/>
+      <c r="P331" s="20"/>
+      <c r="Q331" s="20"/>
+      <c r="R331" s="20"/>
+      <c r="S331" s="20"/>
+      <c r="T331" s="20"/>
+      <c r="U331" s="20"/>
+    </row>
+    <row r="332" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C332" s="20"/>
       <c r="D332" s="20"/>
       <c r="E332" s="20"/>
@@ -10897,8 +12444,12 @@
       <c r="O332" s="20"/>
       <c r="P332" s="20"/>
       <c r="Q332" s="20"/>
-    </row>
-    <row r="333" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="R332" s="20"/>
+      <c r="S332" s="20"/>
+      <c r="T332" s="20"/>
+      <c r="U332" s="20"/>
+    </row>
+    <row r="333" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C333" s="20"/>
       <c r="D333" s="20"/>
       <c r="E333" s="20"/>
@@ -10914,8 +12465,12 @@
       <c r="O333" s="20"/>
       <c r="P333" s="20"/>
       <c r="Q333" s="20"/>
-    </row>
-    <row r="334" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="R333" s="20"/>
+      <c r="S333" s="20"/>
+      <c r="T333" s="20"/>
+      <c r="U333" s="20"/>
+    </row>
+    <row r="334" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C334" s="20"/>
       <c r="D334" s="20"/>
       <c r="E334" s="20"/>
@@ -10931,8 +12486,12 @@
       <c r="O334" s="20"/>
       <c r="P334" s="20"/>
       <c r="Q334" s="20"/>
-    </row>
-    <row r="335" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="R334" s="20"/>
+      <c r="S334" s="20"/>
+      <c r="T334" s="20"/>
+      <c r="U334" s="20"/>
+    </row>
+    <row r="335" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C335" s="20"/>
       <c r="D335" s="20"/>
       <c r="E335" s="20"/>
@@ -10948,8 +12507,12 @@
       <c r="O335" s="20"/>
       <c r="P335" s="20"/>
       <c r="Q335" s="20"/>
-    </row>
-    <row r="336" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="R335" s="20"/>
+      <c r="S335" s="20"/>
+      <c r="T335" s="20"/>
+      <c r="U335" s="20"/>
+    </row>
+    <row r="336" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C336" s="20"/>
       <c r="D336" s="20"/>
       <c r="E336" s="20"/>
@@ -10965,8 +12528,12 @@
       <c r="O336" s="20"/>
       <c r="P336" s="20"/>
       <c r="Q336" s="20"/>
-    </row>
-    <row r="337" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R336" s="20"/>
+      <c r="S336" s="20"/>
+      <c r="T336" s="20"/>
+      <c r="U336" s="20"/>
+    </row>
+    <row r="337" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C337" s="20"/>
       <c r="D337" s="20"/>
       <c r="E337" s="20"/>
@@ -10982,8 +12549,12 @@
       <c r="O337" s="20"/>
       <c r="P337" s="20"/>
       <c r="Q337" s="20"/>
-    </row>
-    <row r="338" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R337" s="20"/>
+      <c r="S337" s="20"/>
+      <c r="T337" s="20"/>
+      <c r="U337" s="20"/>
+    </row>
+    <row r="338" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C338" s="20"/>
       <c r="D338" s="20"/>
       <c r="E338" s="20"/>
@@ -10999,8 +12570,12 @@
       <c r="O338" s="20"/>
       <c r="P338" s="20"/>
       <c r="Q338" s="20"/>
-    </row>
-    <row r="339" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R338" s="20"/>
+      <c r="S338" s="20"/>
+      <c r="T338" s="20"/>
+      <c r="U338" s="20"/>
+    </row>
+    <row r="339" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C339" s="20"/>
       <c r="D339" s="20"/>
       <c r="E339" s="20"/>
@@ -11016,8 +12591,12 @@
       <c r="O339" s="20"/>
       <c r="P339" s="20"/>
       <c r="Q339" s="20"/>
-    </row>
-    <row r="340" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R339" s="20"/>
+      <c r="S339" s="20"/>
+      <c r="T339" s="20"/>
+      <c r="U339" s="20"/>
+    </row>
+    <row r="340" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C340" s="20"/>
       <c r="D340" s="20"/>
       <c r="E340" s="20"/>
@@ -11033,8 +12612,12 @@
       <c r="O340" s="20"/>
       <c r="P340" s="20"/>
       <c r="Q340" s="20"/>
-    </row>
-    <row r="341" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R340" s="20"/>
+      <c r="S340" s="20"/>
+      <c r="T340" s="20"/>
+      <c r="U340" s="20"/>
+    </row>
+    <row r="341" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C341" s="20"/>
       <c r="D341" s="20"/>
       <c r="E341" s="20"/>
@@ -11050,8 +12633,12 @@
       <c r="O341" s="20"/>
       <c r="P341" s="20"/>
       <c r="Q341" s="20"/>
-    </row>
-    <row r="342" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R341" s="20"/>
+      <c r="S341" s="20"/>
+      <c r="T341" s="20"/>
+      <c r="U341" s="20"/>
+    </row>
+    <row r="342" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C342" s="20"/>
       <c r="D342" s="20"/>
       <c r="E342" s="20"/>
@@ -11067,8 +12654,12 @@
       <c r="O342" s="20"/>
       <c r="P342" s="20"/>
       <c r="Q342" s="20"/>
-    </row>
-    <row r="343" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R342" s="20"/>
+      <c r="S342" s="20"/>
+      <c r="T342" s="20"/>
+      <c r="U342" s="20"/>
+    </row>
+    <row r="343" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C343" s="20"/>
       <c r="D343" s="20"/>
       <c r="E343" s="20"/>
@@ -11084,8 +12675,12 @@
       <c r="O343" s="20"/>
       <c r="P343" s="20"/>
       <c r="Q343" s="20"/>
-    </row>
-    <row r="344" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R343" s="20"/>
+      <c r="S343" s="20"/>
+      <c r="T343" s="20"/>
+      <c r="U343" s="20"/>
+    </row>
+    <row r="344" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C344" s="20"/>
       <c r="D344" s="20"/>
       <c r="E344" s="20"/>
@@ -11101,8 +12696,12 @@
       <c r="O344" s="20"/>
       <c r="P344" s="20"/>
       <c r="Q344" s="20"/>
-    </row>
-    <row r="345" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R344" s="20"/>
+      <c r="S344" s="20"/>
+      <c r="T344" s="20"/>
+      <c r="U344" s="20"/>
+    </row>
+    <row r="345" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C345" s="20"/>
       <c r="D345" s="20"/>
       <c r="E345" s="20"/>
@@ -11118,8 +12717,12 @@
       <c r="O345" s="20"/>
       <c r="P345" s="20"/>
       <c r="Q345" s="20"/>
-    </row>
-    <row r="346" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R345" s="20"/>
+      <c r="S345" s="20"/>
+      <c r="T345" s="20"/>
+      <c r="U345" s="20"/>
+    </row>
+    <row r="346" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C346" s="20"/>
       <c r="D346" s="20"/>
       <c r="E346" s="20"/>
@@ -11135,8 +12738,12 @@
       <c r="O346" s="20"/>
       <c r="P346" s="20"/>
       <c r="Q346" s="20"/>
-    </row>
-    <row r="347" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R346" s="20"/>
+      <c r="S346" s="20"/>
+      <c r="T346" s="20"/>
+      <c r="U346" s="20"/>
+    </row>
+    <row r="347" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C347" s="20"/>
       <c r="D347" s="20"/>
       <c r="E347" s="20"/>
@@ -11152,8 +12759,12 @@
       <c r="O347" s="20"/>
       <c r="P347" s="20"/>
       <c r="Q347" s="20"/>
-    </row>
-    <row r="348" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R347" s="20"/>
+      <c r="S347" s="20"/>
+      <c r="T347" s="20"/>
+      <c r="U347" s="20"/>
+    </row>
+    <row r="348" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C348" s="20"/>
       <c r="D348" s="20"/>
       <c r="E348" s="20"/>
@@ -11169,8 +12780,12 @@
       <c r="O348" s="20"/>
       <c r="P348" s="20"/>
       <c r="Q348" s="20"/>
-    </row>
-    <row r="349" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R348" s="20"/>
+      <c r="S348" s="20"/>
+      <c r="T348" s="20"/>
+      <c r="U348" s="20"/>
+    </row>
+    <row r="349" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C349" s="20"/>
       <c r="D349" s="20"/>
       <c r="E349" s="20"/>
@@ -11186,8 +12801,12 @@
       <c r="O349" s="20"/>
       <c r="P349" s="20"/>
       <c r="Q349" s="20"/>
-    </row>
-    <row r="350" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R349" s="20"/>
+      <c r="S349" s="20"/>
+      <c r="T349" s="20"/>
+      <c r="U349" s="20"/>
+    </row>
+    <row r="350" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C350" s="20"/>
       <c r="D350" s="20"/>
       <c r="E350" s="20"/>
@@ -11203,8 +12822,12 @@
       <c r="O350" s="20"/>
       <c r="P350" s="20"/>
       <c r="Q350" s="20"/>
-    </row>
-    <row r="351" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R350" s="20"/>
+      <c r="S350" s="20"/>
+      <c r="T350" s="20"/>
+      <c r="U350" s="20"/>
+    </row>
+    <row r="351" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C351" s="20"/>
       <c r="D351" s="20"/>
       <c r="E351" s="20"/>
@@ -11220,8 +12843,12 @@
       <c r="O351" s="20"/>
       <c r="P351" s="20"/>
       <c r="Q351" s="20"/>
-    </row>
-    <row r="352" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R351" s="20"/>
+      <c r="S351" s="20"/>
+      <c r="T351" s="20"/>
+      <c r="U351" s="20"/>
+    </row>
+    <row r="352" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C352" s="20"/>
       <c r="D352" s="20"/>
       <c r="E352" s="20"/>
@@ -11237,108 +12864,10 @@
       <c r="O352" s="20"/>
       <c r="P352" s="20"/>
       <c r="Q352" s="20"/>
-    </row>
-    <row r="353" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C353" s="20"/>
-      <c r="D353" s="20"/>
-      <c r="E353" s="20"/>
-      <c r="F353" s="20"/>
-      <c r="G353" s="20"/>
-      <c r="H353" s="20"/>
-      <c r="I353" s="20"/>
-      <c r="J353" s="20"/>
-      <c r="K353" s="20"/>
-      <c r="L353" s="20"/>
-      <c r="M353" s="20"/>
-      <c r="N353" s="20"/>
-      <c r="O353" s="20"/>
-      <c r="P353" s="20"/>
-      <c r="Q353" s="20"/>
-    </row>
-    <row r="354" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C354" s="20"/>
-      <c r="D354" s="20"/>
-      <c r="E354" s="20"/>
-      <c r="F354" s="20"/>
-      <c r="G354" s="20"/>
-      <c r="H354" s="20"/>
-      <c r="I354" s="20"/>
-      <c r="J354" s="20"/>
-      <c r="K354" s="20"/>
-      <c r="L354" s="20"/>
-      <c r="M354" s="20"/>
-      <c r="N354" s="20"/>
-      <c r="O354" s="20"/>
-      <c r="P354" s="20"/>
-      <c r="Q354" s="20"/>
-    </row>
-    <row r="355" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C355" s="20"/>
-      <c r="D355" s="20"/>
-      <c r="E355" s="20"/>
-      <c r="F355" s="20"/>
-      <c r="G355" s="20"/>
-      <c r="H355" s="20"/>
-      <c r="I355" s="20"/>
-      <c r="J355" s="20"/>
-      <c r="K355" s="20"/>
-      <c r="L355" s="20"/>
-      <c r="M355" s="20"/>
-      <c r="N355" s="20"/>
-      <c r="O355" s="20"/>
-      <c r="P355" s="20"/>
-      <c r="Q355" s="20"/>
-    </row>
-    <row r="356" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C356" s="20"/>
-      <c r="D356" s="20"/>
-      <c r="E356" s="20"/>
-      <c r="F356" s="20"/>
-      <c r="G356" s="20"/>
-      <c r="H356" s="20"/>
-      <c r="I356" s="20"/>
-      <c r="J356" s="20"/>
-      <c r="K356" s="20"/>
-      <c r="L356" s="20"/>
-      <c r="M356" s="20"/>
-      <c r="N356" s="20"/>
-      <c r="O356" s="20"/>
-      <c r="P356" s="20"/>
-      <c r="Q356" s="20"/>
-    </row>
-    <row r="357" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C357" s="20"/>
-      <c r="D357" s="20"/>
-      <c r="E357" s="20"/>
-      <c r="F357" s="20"/>
-      <c r="G357" s="20"/>
-      <c r="H357" s="20"/>
-      <c r="I357" s="20"/>
-      <c r="J357" s="20"/>
-      <c r="K357" s="20"/>
-      <c r="L357" s="20"/>
-      <c r="M357" s="20"/>
-      <c r="N357" s="20"/>
-      <c r="O357" s="20"/>
-      <c r="P357" s="20"/>
-      <c r="Q357" s="20"/>
-    </row>
-    <row r="358" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C358" s="20"/>
-      <c r="D358" s="20"/>
-      <c r="E358" s="20"/>
-      <c r="F358" s="20"/>
-      <c r="G358" s="20"/>
-      <c r="H358" s="20"/>
-      <c r="I358" s="20"/>
-      <c r="J358" s="20"/>
-      <c r="K358" s="20"/>
-      <c r="L358" s="20"/>
-      <c r="M358" s="20"/>
-      <c r="N358" s="20"/>
-      <c r="O358" s="20"/>
-      <c r="P358" s="20"/>
-      <c r="Q358" s="20"/>
+      <c r="R352" s="20"/>
+      <c r="S352" s="20"/>
+      <c r="T352" s="20"/>
+      <c r="U352" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
